--- a/.types/PricingCalculator.xlsx
+++ b/.types/PricingCalculator.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB00BC2-94ED-4034-91A4-A55AEAD1BADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90A8030-8FCC-4DAA-8B45-21198CC2653A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1725" windowWidth="32430" windowHeight="15345" tabRatio="440" xr2:uid="{832E79D0-8789-4A53-9DF8-4CE6F81FF887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="440" xr2:uid="{832E79D0-8789-4A53-9DF8-4CE6F81FF887}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
   <si>
     <t>Fish Name</t>
   </si>
@@ -213,12 +213,6 @@
   </si>
   <si>
     <t>King Crab</t>
-  </si>
-  <si>
-    <t>Lobster</t>
-  </si>
-  <si>
-    <t>Blue Lobster</t>
   </si>
   <si>
     <t>Yellowfin Tuna</t>
@@ -410,9 +404,6 @@
     <t>geb_Sauger</t>
   </si>
   <si>
-    <t>geb_Lobster</t>
-  </si>
-  <si>
     <t>geb_Mussel</t>
   </si>
   <si>
@@ -500,9 +491,6 @@
     <t>geb_Starfish</t>
   </si>
   <si>
-    <t>geb_KingcrabLegs</t>
-  </si>
-  <si>
     <t>geb_Kingcrab</t>
   </si>
   <si>
@@ -516,15 +504,6 @@
   </si>
   <si>
     <t>geb_Greatwhiteshark</t>
-  </si>
-  <si>
-    <t>geb_BlueLobsterTail</t>
-  </si>
-  <si>
-    <t>geb_BlueLobster</t>
-  </si>
-  <si>
-    <t>geb_LobsterTail</t>
   </si>
   <si>
     <t>Can be cut up</t>
@@ -545,12 +524,6 @@
     <t>geb_bluegill</t>
   </si>
   <si>
-    <t>Crayfish</t>
-  </si>
-  <si>
-    <t>geb_Crayfish</t>
-  </si>
-  <si>
     <t>Mahimahi</t>
   </si>
   <si>
@@ -567,9 +540,6 @@
   </si>
   <si>
     <t>Arbitrary Adjustment  Whole</t>
-  </si>
-  <si>
-    <t>Extra Food Drops</t>
   </si>
   <si>
     <t>Meat Yield Weight</t>
@@ -605,9 +575,6 @@
     <t>geb_Rainbowtrout</t>
   </si>
   <si>
-    <t>geb_CrayFishTailMeat</t>
-  </si>
-  <si>
     <t>geb_AtlanticBlueMarlin</t>
   </si>
   <si>
@@ -635,7 +602,58 @@
     <t>Expansion JSON Fillet Overrides</t>
   </si>
   <si>
-    <t>Expansion JSON Other Drops</t>
+    <t>Signal CrayFish</t>
+  </si>
+  <si>
+    <t>geb_SignalCrayFish</t>
+  </si>
+  <si>
+    <t>geb_EuropeanCrayFish</t>
+  </si>
+  <si>
+    <t>European CrayFish</t>
+  </si>
+  <si>
+    <t>Extra Food Drop 1</t>
+  </si>
+  <si>
+    <t>Expansion JSON Extra Drop 1</t>
+  </si>
+  <si>
+    <t>American Lobster</t>
+  </si>
+  <si>
+    <t>geb_AmericanLobster</t>
+  </si>
+  <si>
+    <t>geb_AmericanLobsterTail</t>
+  </si>
+  <si>
+    <t>geb_AmericanLobsterClaw</t>
+  </si>
+  <si>
+    <t>geb_EuropeanLobster</t>
+  </si>
+  <si>
+    <t>European Lobster</t>
+  </si>
+  <si>
+    <t>geb_EuropeanLobsterTail</t>
+  </si>
+  <si>
+    <t>geb_EuropeanLobsterClaw</t>
+  </si>
+  <si>
+    <t>geb_KingCrabLegs</t>
+  </si>
+  <si>
+    <t>Snow Crab</t>
+  </si>
+  <si>
+    <t>geb_SnowCrab</t>
+  </si>
+  <si>
+    <t>geb_SnowCrabLegs</t>
   </si>
 </sst>
 </file>
@@ -729,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -752,6 +770,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1115,12 +1136,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E0698C-99CB-4622-82DA-EA07057B61EB}">
-  <dimension ref="A1:T987"/>
+  <dimension ref="A1:T989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1169,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1158,22 +1179,22 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0.5</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J2">
         <v>150</v>
       </c>
       <c r="L2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1181,19 +1202,19 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E3">
         <v>0.3</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3">
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O3">
         <v>4.25</v>
@@ -1203,20 +1224,20 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>0.2</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="2">
         <v>2.25</v>
       </c>
       <c r="L4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="O4">
         <v>1.25</v>
@@ -1227,136 +1248,136 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="Q6" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
         <v>143</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J7" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K38" si="0">(G7*$E$2)+(I7*$E$3)+(J7*$E$4)</f>
-        <v>5.6</v>
+        <f>(G7*$E$2)+(I7*$E$3)+(J7*$E$4)</f>
+        <v>7.6</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>
       </c>
       <c r="M7">
         <f>ROUND($J$2 * K7 * L7 * IF(F7=1, $O$4, 1) * IF(H7=1, $O$2, 1),0)</f>
-        <v>840</v>
+        <v>2850</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N38" si="1">INT((M7/I7)*$O$3)</f>
-        <v>510</v>
+        <f>INT((M7/I7)*$O$3)</f>
+        <v>6056</v>
       </c>
       <c r="O7">
         <f>N7*I7</f>
-        <v>3570</v>
+        <v>12112</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P38" si="2">ROUND(25*EXP(-0.5*((K7-5)/$J$4)^2), 0)</f>
-        <v>24</v>
+        <f>ROUND(25*EXP(-0.5*((K7-5)/$J$4)^2), 0)</f>
+        <v>13</v>
       </c>
       <c r="Q7" s="9" t="str">
         <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B7) &amp; """,""MaxPriceThreshold"":" &amp; M7 &amp; ",""MinPriceThreshold"":" &amp; M7 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
-        <v>, {"ClassName":"carp","MaxPriceThreshold":840,"MinPriceThreshold":840,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R7" s="9" t="str">
-        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B7) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N7 &amp; ",""MinPriceThreshold"":" &amp; N7 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
-        <v>, {"ClassName":"carpfilletmeat","MaxPriceThreshold":510,"MinPriceThreshold":510,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <v>, {"ClassName":"geb_americanlobster","MaxPriceThreshold":2850,"MinPriceThreshold":2850,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S7" s="9" t="str">
-        <f t="shared" ref="S7:S28" si="3">IF(ISTEXT(C7), ", {""ClassName"":""" &amp; LOWER(C7) &amp; """,""MaxPriceThreshold"":" &amp; N7 &amp; ",""MinPriceThreshold"":" &amp; N7 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
-        <v/>
+        <f>IF(ISTEXT(C7), ", {""ClassName"":""" &amp; LOWER(C7) &amp; """,""MaxPriceThreshold"":" &amp; N7 &amp; ",""MinPriceThreshold"":" &amp; N7 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v>, {"ClassName":"geb_americanlobstertail","MaxPriceThreshold":6056,"MinPriceThreshold":6056,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="T7" s="9" t="str">
         <f>IF(ISTEXT(D7), ", {""ClassName"":""" &amp; LOWER(D7) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N7 &amp; ",""MinPriceThreshold"":" &amp; N7 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>, {"ClassName":"geb_americanlobsterclaw","MaxPriceThreshold":6056,"MinPriceThreshold":6056,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1365,132 +1386,129 @@
         <v>1</v>
       </c>
       <c r="G8" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>6.9</v>
+        <f>(G8*$E$2)+(I8*$E$3)+(J8*$E$4)</f>
+        <v>4.2</v>
       </c>
       <c r="L8" s="6">
         <v>1</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M63" si="4">ROUND($J$2 * K8 * L8 * IF(F8=1, $O$4, 1) * IF(H8=1, $O$2, 1),0)</f>
-        <v>1294</v>
+        <f>ROUND($J$2 * K8 * L8 * IF(F8=1, $O$4, 1) * IF(H8=1, $O$2, 1),0)</f>
+        <v>788</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>1099</v>
+        <f>INT((M8/I8)*$O$3)</f>
+        <v>478</v>
       </c>
       <c r="O8">
         <f>N8*I8</f>
-        <v>5495</v>
+        <v>3346</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>ROUND(25*EXP(-0.5*((K8-5)/$J$4)^2), 0)</f>
+        <v>23</v>
       </c>
       <c r="Q8" s="9" t="str">
-        <f t="shared" ref="Q8:Q63" si="5" xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B8) &amp; """,""MaxPriceThreshold"":" &amp; M8 &amp; ",""MinPriceThreshold"":" &amp; M8 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
-        <v>, {"ClassName":"mackerel","MaxPriceThreshold":1294,"MinPriceThreshold":1294,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B8) &amp; """,""MaxPriceThreshold"":" &amp; M8 &amp; ",""MinPriceThreshold"":" &amp; M8 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_angelshark","MaxPriceThreshold":788,"MinPriceThreshold":788,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R8" s="9" t="str">
-        <f t="shared" ref="R8:R62" si="6" xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B8) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N8 &amp; ",""MinPriceThreshold"":" &amp; N8 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
-        <v>, {"ClassName":"mackerelfilletmeat","MaxPriceThreshold":1099,"MinPriceThreshold":1099,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B8) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N8 &amp; ",""MinPriceThreshold"":" &amp; N8 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_angelsharkfilletmeat","MaxPriceThreshold":478,"MinPriceThreshold":478,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S8" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C8), ", {""ClassName"":""" &amp; LOWER(C8) &amp; """,""MaxPriceThreshold"":" &amp; N8 &amp; ",""MinPriceThreshold"":" &amp; N8 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T8" s="9" t="str">
-        <f t="shared" ref="T8:T63" si="7">IF(ISTEXT(D8), ", {""ClassName"":""" &amp; LOWER(D8) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N8 &amp; ",""MinPriceThreshold"":" &amp; N8 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <f>IF(ISTEXT(D8), ", {""ClassName"":""" &amp; LOWER(D8) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N8 &amp; ",""MinPriceThreshold"":" &amp; N8 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
       <c r="I9" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
+        <f>(G9*$E$2)+(I9*$E$3)+(J9*$E$4)</f>
+        <v>1.9</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
-        <v>420</v>
-      </c>
-      <c r="N9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" t="e">
+        <f>ROUND($J$2 * K9 * L9 * IF(F9=1, $O$4, 1) * IF(H9=1, $O$2, 1),0)</f>
+        <v>356</v>
+      </c>
+      <c r="N9">
+        <f>INT((M9/I9)*$O$3)</f>
+        <v>378</v>
+      </c>
+      <c r="O9">
         <f>N9*I9</f>
-        <v>#DIV/0!</v>
+        <v>1512</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>ROUND(25*EXP(-0.5*((K9-5)/$J$4)^2), 0)</f>
+        <v>10</v>
       </c>
       <c r="Q9" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"bitterlings","MaxPriceThreshold":420,"MinPriceThreshold":420,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>130</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B9) &amp; """,""MaxPriceThreshold"":" &amp; M9 &amp; ",""MinPriceThreshold"":" &amp; M9 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_angelfish","MaxPriceThreshold":356,"MinPriceThreshold":356,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R9" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B9) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N9 &amp; ",""MinPriceThreshold"":" &amp; N9 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_angelfishfilletmeat","MaxPriceThreshold":378,"MinPriceThreshold":378,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S9" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C9), ", {""ClassName"":""" &amp; LOWER(C9) &amp; """,""MaxPriceThreshold"":" &amp; N9 &amp; ",""MinPriceThreshold"":" &amp; N9 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T9" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D9), ", {""ClassName"":""" &amp; LOWER(D9) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N9 &amp; ",""MinPriceThreshold"":" &amp; N9 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
       <c r="E10">
         <v>1</v>
       </c>
@@ -1504,60 +1522,58 @@
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="6">
         <v>9</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
-        <v>8.1</v>
+        <f>(G10*$E$2)+(I10*$E$3)+(J10*$E$4)</f>
+        <v>8.4</v>
       </c>
       <c r="L10" s="6">
         <v>1</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
-        <v>1519</v>
+        <f>ROUND($J$2 * K10 * L10 * IF(F10=1, $O$4, 1) * IF(H10=1, $O$2, 1),0)</f>
+        <v>1575</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>1075</v>
+        <f>INT((M10/I10)*$O$3)</f>
+        <v>956</v>
       </c>
       <c r="O10">
         <f>N10*I10</f>
-        <v>6450</v>
+        <v>6692</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>ROUND(25*EXP(-0.5*((K10-5)/$J$4)^2), 0)</f>
+        <v>8</v>
       </c>
       <c r="Q10" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"steelheadtrout","MaxPriceThreshold":1519,"MinPriceThreshold":1519,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B10) &amp; """,""MaxPriceThreshold"":" &amp; M10 &amp; ",""MinPriceThreshold"":" &amp; M10 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_asianseabass","MaxPriceThreshold":1575,"MinPriceThreshold":1575,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R10" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"steelheadtroutfilletmeat","MaxPriceThreshold":1075,"MinPriceThreshold":1075,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B10) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N10 &amp; ",""MinPriceThreshold"":" &amp; N10 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_asianseabassfilletmeat","MaxPriceThreshold":956,"MinPriceThreshold":956,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S10" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C10), ", {""ClassName"":""" &amp; LOWER(C10) &amp; """,""MaxPriceThreshold"":" &amp; N10 &amp; ",""MinPriceThreshold"":" &amp; N10 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T10" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D10), ", {""ClassName"":""" &amp; LOWER(D10) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N10 &amp; ",""MinPriceThreshold"":" &amp; N10 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -1565,263 +1581,267 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J11" s="6">
         <v>4</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
-        <v>6.8999999999999995</v>
+        <f>(G11*$E$2)+(I11*$E$3)+(J11*$E$4)</f>
+        <v>5.8</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
-        <v>1294</v>
+        <f>ROUND($J$2 * K11 * L11 * IF(F11=1, $O$4, 1) * IF(H11=1, $O$2, 1),0)</f>
+        <v>1088</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
-        <v>785</v>
+        <f>INT((M11/I11)*$O$3)</f>
+        <v>462</v>
       </c>
       <c r="O11">
         <f>N11*I11</f>
-        <v>5495</v>
+        <v>4620</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>ROUND(25*EXP(-0.5*((K11-5)/$J$4)^2), 0)</f>
+        <v>23</v>
       </c>
       <c r="Q11" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"walleyepollock","MaxPriceThreshold":1294,"MinPriceThreshold":1294,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B11) &amp; """,""MaxPriceThreshold"":" &amp; M11 &amp; ",""MinPriceThreshold"":" &amp; M11 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_atlanticbluemarlin","MaxPriceThreshold":1088,"MinPriceThreshold":1088,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R11" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"walleyepollockfilletmeat","MaxPriceThreshold":785,"MinPriceThreshold":785,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B11) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N11 &amp; ",""MinPriceThreshold"":" &amp; N11 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_atlanticbluemarlinfilletmeat","MaxPriceThreshold":462,"MinPriceThreshold":462,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S11" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C11), ", {""ClassName"":""" &amp; LOWER(C11) &amp; """,""MaxPriceThreshold"":" &amp; N11 &amp; ",""MinPriceThreshold"":" &amp; N11 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T11" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D11), ", {""ClassName"":""" &amp; LOWER(D11) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N11 &amp; ",""MinPriceThreshold"":" &amp; N11 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f>(G12*$E$2)+(I12*$E$3)+(J12*$E$4)</f>
+        <v>1.4</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>ROUND($J$2 * K12 * L12 * IF(F12=1, $O$4, 1) * IF(H12=1, $O$2, 1),0)</f>
+        <v>420</v>
+      </c>
+      <c r="N12" t="e">
+        <f>INT((M12/I12)*$O$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" t="e">
+        <f>N12*I12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12">
+        <f>ROUND(25*EXP(-0.5*((K12-5)/$J$4)^2), 0)</f>
         <v>7</v>
       </c>
-      <c r="J12" s="6">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="4"/>
-        <v>788</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>478</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ref="O12:O42" si="8">N12*I12</f>
-        <v>3346</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
       <c r="Q12" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_angelshark","MaxPriceThreshold":788,"MinPriceThreshold":788,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R12" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_angelsharkfilletmeat","MaxPriceThreshold":478,"MinPriceThreshold":478,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B12) &amp; """,""MaxPriceThreshold"":" &amp; M12 &amp; ",""MinPriceThreshold"":" &amp; M12 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"bitterlings","MaxPriceThreshold":420,"MinPriceThreshold":420,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C12), ", {""ClassName"":""" &amp; LOWER(C12) &amp; """,""MaxPriceThreshold"":" &amp; N12 &amp; ",""MinPriceThreshold"":" &amp; N12 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T12" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D12), ", {""ClassName"":""" &amp; LOWER(D12) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N12 &amp; ",""MinPriceThreshold"":" &amp; N12 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
       <c r="I13" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J13" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
+        <f>(G13*$E$2)+(I13*$E$3)+(J13*$E$4)</f>
+        <v>6.6000000000000005</v>
       </c>
       <c r="L13" s="6">
         <v>1</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
-        <v>356</v>
+        <f>ROUND($J$2 * K13 * L13 * IF(F13=1, $O$4, 1) * IF(H13=1, $O$2, 1),0)</f>
+        <v>990</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
-        <v>378</v>
+        <f>INT((M13/I13)*$O$3)</f>
+        <v>525</v>
       </c>
       <c r="O13">
-        <f t="shared" si="8"/>
-        <v>1512</v>
+        <f>N13*I13</f>
+        <v>4200</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>ROUND(25*EXP(-0.5*((K13-5)/$J$4)^2), 0)</f>
+        <v>19</v>
       </c>
       <c r="Q13" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_angelfish","MaxPriceThreshold":356,"MinPriceThreshold":356,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B13) &amp; """,""MaxPriceThreshold"":" &amp; M13 &amp; ",""MinPriceThreshold"":" &amp; M13 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_blackbass","MaxPriceThreshold":990,"MinPriceThreshold":990,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R13" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_angelfishfilletmeat","MaxPriceThreshold":378,"MinPriceThreshold":378,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B13) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N13 &amp; ",""MinPriceThreshold"":" &amp; N13 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_blackbassfilletmeat","MaxPriceThreshold":525,"MinPriceThreshold":525,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S13" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C13), ", {""ClassName"":""" &amp; LOWER(C13) &amp; """,""MaxPriceThreshold"":" &amp; N13 &amp; ",""MinPriceThreshold"":" &amp; N13 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T13" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D13), ", {""ClassName"":""" &amp; LOWER(D13) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N13 &amp; ",""MinPriceThreshold"":" &amp; N13 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
+    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="6">
-        <v>7</v>
-      </c>
       <c r="J14" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
-        <v>8.4</v>
+        <f>(G14*$E$2)+(I14*$E$3)+(J14*$E$4)</f>
+        <v>0</v>
       </c>
       <c r="L14" s="6">
         <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
-        <v>1575</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>956</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="8"/>
-        <v>6692</v>
+        <f>ROUND($J$2 * K14 * L14 * IF(F14=1, $O$4, 1) * IF(H14=1, $O$2, 1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" t="e">
+        <f>INT((M14/I14)*$O$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" t="e">
+        <f>N14*I14</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>ROUND(25*EXP(-0.5*((K14-5)/$J$4)^2), 0)</f>
+        <v>2</v>
       </c>
       <c r="Q14" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_asianseabass","MaxPriceThreshold":1575,"MinPriceThreshold":1575,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R14" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_asianseabassfilletmeat","MaxPriceThreshold":956,"MinPriceThreshold":956,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B14) &amp; """,""MaxPriceThreshold"":" &amp; M14 &amp; ",""MinPriceThreshold"":" &amp; M14 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_blackdevilsnail","MaxPriceThreshold":0,"MinPriceThreshold":0,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="S14" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C14), ", {""ClassName"":""" &amp; LOWER(C14) &amp; """,""MaxPriceThreshold"":" &amp; N14 &amp; ",""MinPriceThreshold"":" &amp; N14 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T14" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D14), ", {""ClassName"":""" &amp; LOWER(D14) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N14 &amp; ",""MinPriceThreshold"":" &amp; N14 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1830,261 +1850,256 @@
         <v>6</v>
       </c>
       <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
         <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>8</v>
       </c>
       <c r="J15" s="6">
         <v>6</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <f>(G15*$E$2)+(I15*$E$3)+(J15*$E$4)</f>
+        <v>4.2</v>
       </c>
       <c r="L15" s="6">
         <v>1</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
-        <v>990</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>525</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="8"/>
-        <v>4200</v>
+        <f>ROUND($J$2 * K15 * L15 * IF(F15=1, $O$4, 1) * IF(H15=1, $O$2, 1),0)</f>
+        <v>1260</v>
+      </c>
+      <c r="N15" t="e">
+        <f>INT((M15/I15)*$O$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" t="e">
+        <f>N15*I15</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f>ROUND(25*EXP(-0.5*((K15-5)/$J$4)^2), 0)</f>
+        <v>23</v>
       </c>
       <c r="Q15" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_blackbass","MaxPriceThreshold":990,"MinPriceThreshold":990,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R15" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_blackbassfilletmeat","MaxPriceThreshold":525,"MinPriceThreshold":525,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B15) &amp; """,""MaxPriceThreshold"":" &amp; M15 &amp; ",""MinPriceThreshold"":" &amp; M15 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bloodclam","MaxPriceThreshold":1260,"MinPriceThreshold":1260,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="S15" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C15), ", {""ClassName"":""" &amp; LOWER(C15) &amp; """,""MaxPriceThreshold"":" &amp; N15 &amp; ",""MinPriceThreshold"":" &amp; N15 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T15" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D15), ", {""ClassName"":""" &amp; LOWER(D15) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N15 &amp; ",""MinPriceThreshold"":" &amp; N15 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>51</v>
+    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+        <v>129</v>
+      </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f>(G16*$E$2)+(I16*$E$3)+(J16*$E$4)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f>ROUND($J$2 * K16 * L16 * IF(F16=1, $O$4, 1) * IF(H16=1, $O$2, 1),0)</f>
+        <v>638</v>
+      </c>
+      <c r="N16">
+        <f>INT((M16/I16)*$O$3)</f>
+        <v>2711</v>
+      </c>
+      <c r="O16">
+        <f>N16*I16</f>
+        <v>2711</v>
+      </c>
+      <c r="P16">
+        <f>ROUND(25*EXP(-0.5*((K16-5)/$J$4)^2), 0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q16" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B16) &amp; """,""MaxPriceThreshold"":" &amp; M16 &amp; ",""MinPriceThreshold"":" &amp; M16 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bluejellyfish","MaxPriceThreshold":638,"MinPriceThreshold":638,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R16" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B16) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N16 &amp; ",""MinPriceThreshold"":" &amp; N16 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bluejellyfishfilletmeat","MaxPriceThreshold":2711,"MinPriceThreshold":2711,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S16" s="9" t="str">
+        <f>IF(ISTEXT(C16), ", {""ClassName"":""" &amp; LOWER(C16) &amp; """,""MaxPriceThreshold"":" &amp; N16 &amp; ",""MinPriceThreshold"":" &amp; N16 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T16" s="9" t="str">
+        <f>IF(ISTEXT(D16), ", {""ClassName"":""" &amp; LOWER(D16) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N16 &amp; ",""MinPriceThreshold"":" &amp; N16 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="I17" s="6">
+        <v>4</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f>(G17*$E$2)+(I17*$E$3)+(J17*$E$4)</f>
+        <v>1.9</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f>ROUND($J$2 * K17 * L17 * IF(F17=1, $O$4, 1) * IF(H17=1, $O$2, 1),0)</f>
+        <v>356</v>
+      </c>
+      <c r="N17">
+        <f>INT((M17/I17)*$O$3)</f>
+        <v>378</v>
+      </c>
+      <c r="O17">
+        <f>N17*I17</f>
+        <v>1512</v>
+      </c>
+      <c r="P17">
+        <f>ROUND(25*EXP(-0.5*((K17-5)/$J$4)^2), 0)</f>
+        <v>10</v>
+      </c>
+      <c r="Q17" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B17) &amp; """,""MaxPriceThreshold"":" &amp; M17 &amp; ",""MinPriceThreshold"":" &amp; M17 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bluetang","MaxPriceThreshold":356,"MinPriceThreshold":356,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R17" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B17) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N17 &amp; ",""MinPriceThreshold"":" &amp; N17 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bluetangfilletmeat","MaxPriceThreshold":378,"MinPriceThreshold":378,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S17" s="9" t="str">
+        <f>IF(ISTEXT(C17), ", {""ClassName"":""" &amp; LOWER(C17) &amp; """,""MaxPriceThreshold"":" &amp; N17 &amp; ",""MinPriceThreshold"":" &amp; N17 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T17" s="9" t="str">
+        <f>IF(ISTEXT(D17), ", {""ClassName"":""" &amp; LOWER(D17) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N17 &amp; ",""MinPriceThreshold"":" &amp; N17 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q16" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_blackdevilsnail","MaxPriceThreshold":0,"MinPriceThreshold":0,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="S16" s="9" t="str">
-        <f t="shared" si="3"/>
+      <c r="I18" s="6">
+        <v>6</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <f>(G18*$E$2)+(I18*$E$3)+(J18*$E$4)</f>
+        <v>5.3</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f>ROUND($J$2 * K18 * L18 * IF(F18=1, $O$4, 1) * IF(H18=1, $O$2, 1),0)</f>
+        <v>994</v>
+      </c>
+      <c r="N18">
+        <f>INT((M18/I18)*$O$3)</f>
+        <v>704</v>
+      </c>
+      <c r="O18">
+        <f>N18*I18</f>
+        <v>4224</v>
+      </c>
+      <c r="P18">
+        <f>ROUND(25*EXP(-0.5*((K18-5)/$J$4)^2), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q18" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B18) &amp; """,""MaxPriceThreshold"":" &amp; M18 &amp; ",""MinPriceThreshold"":" &amp; M18 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bluegill","MaxPriceThreshold":994,"MinPriceThreshold":994,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R18" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B18) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N18 &amp; ",""MinPriceThreshold"":" &amp; N18 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bluegillfilletmeat","MaxPriceThreshold":704,"MinPriceThreshold":704,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S18" s="9" t="str">
+        <f>IF(ISTEXT(C18), ", {""ClassName"":""" &amp; LOWER(C18) &amp; """,""MaxPriceThreshold"":" &amp; N18 &amp; ",""MinPriceThreshold"":" &amp; N18 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
-      <c r="T16" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="T18" s="9" t="str">
+        <f>IF(ISTEXT(D18), ", {""ClassName"":""" &amp; LOWER(D18) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N18 &amp; ",""MinPriceThreshold"":" &amp; N18 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>6</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6">
-        <v>6</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="L17" s="6">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="4"/>
-        <v>1440</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>3060</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="8"/>
-        <v>6120</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="Q17" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_bloodclam","MaxPriceThreshold":1440,"MinPriceThreshold":1440,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R17" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_bloodclamfilletmeat","MaxPriceThreshold":3060,"MinPriceThreshold":3060,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S17" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T17" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>10</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>9</v>
-      </c>
-      <c r="J18" s="6">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="4"/>
-        <v>3638</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
-        <v>1717</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="8"/>
-        <v>15453</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q18" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_bluelobster","MaxPriceThreshold":3638,"MinPriceThreshold":3638,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R18" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_bluelobsterfilletmeat","MaxPriceThreshold":1717,"MinPriceThreshold":1717,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S18" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T18" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>, {"ClassName":"geb_bluelobstertail","MaxPriceThreshold":1717,"MinPriceThreshold":1717,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2093,64 +2108,66 @@
         <v>1</v>
       </c>
       <c r="G19" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
       </c>
       <c r="I19" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J19" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
-        <v>5.8</v>
+        <f>(G19*$E$2)+(I19*$E$3)+(J19*$E$4)</f>
+        <v>6.4</v>
       </c>
       <c r="L19" s="6">
         <v>1</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
-        <v>1088</v>
+        <f>ROUND($J$2 * K19 * L19 * IF(F19=1, $O$4, 1) * IF(H19=1, $O$2, 1),0)</f>
+        <v>1200</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>462</v>
+        <f>INT((M19/I19)*$O$3)</f>
+        <v>1020</v>
       </c>
       <c r="O19">
-        <f t="shared" si="8"/>
-        <v>4620</v>
+        <f>N19*I19</f>
+        <v>5100</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f>ROUND(25*EXP(-0.5*((K19-5)/$J$4)^2), 0)</f>
+        <v>21</v>
       </c>
       <c r="Q19" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_atlanticbluemarlin","MaxPriceThreshold":1088,"MinPriceThreshold":1088,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B19) &amp; """,""MaxPriceThreshold"":" &amp; M19 &amp; ",""MinPriceThreshold"":" &amp; M19 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bonita","MaxPriceThreshold":1200,"MinPriceThreshold":1200,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R19" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_atlanticbluemarlinfilletmeat","MaxPriceThreshold":462,"MinPriceThreshold":462,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B19) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N19 &amp; ",""MinPriceThreshold"":" &amp; N19 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bonitafilletmeat","MaxPriceThreshold":1020,"MinPriceThreshold":1020,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S19" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C19), ", {""ClassName"":""" &amp; LOWER(C19) &amp; """,""MaxPriceThreshold"":" &amp; N19 &amp; ",""MinPriceThreshold"":" &amp; N19 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T19" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D19), ", {""ClassName"":""" &amp; LOWER(D19) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N19 &amp; ",""MinPriceThreshold"":" &amp; N19 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20">
         <v>1</v>
       </c>
@@ -2158,63 +2175,63 @@
         <v>1</v>
       </c>
       <c r="G20" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="6">
         <v>0</v>
       </c>
       <c r="I20" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
+        <f>(G20*$E$2)+(I20*$E$3)+(J20*$E$4)</f>
+        <v>3.6</v>
       </c>
       <c r="L20" s="6">
         <v>1</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
-        <v>356</v>
+        <f>ROUND($J$2 * K20 * L20 * IF(F20=1, $O$4, 1) * IF(H20=1, $O$2, 1),0)</f>
+        <v>675</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
-        <v>378</v>
+        <f>INT((M20/I20)*$O$3)</f>
+        <v>573</v>
       </c>
       <c r="O20">
-        <f t="shared" si="8"/>
-        <v>1512</v>
+        <f>N20*I20</f>
+        <v>2865</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
+        <f>ROUND(25*EXP(-0.5*((K20-5)/$J$4)^2), 0)</f>
+        <v>21</v>
+      </c>
+      <c r="Q20" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B20) &amp; """,""MaxPriceThreshold"":" &amp; M20 &amp; ",""MinPriceThreshold"":" &amp; M20 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bowfin","MaxPriceThreshold":675,"MinPriceThreshold":675,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R20" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B20) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N20 &amp; ",""MinPriceThreshold"":" &amp; N20 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_bowfinfilletmeat","MaxPriceThreshold":573,"MinPriceThreshold":573,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S20" s="9" t="str">
+        <f>IF(ISTEXT(C20), ", {""ClassName"":""" &amp; LOWER(C20) &amp; """,""MaxPriceThreshold"":" &amp; N20 &amp; ",""MinPriceThreshold"":" &amp; N20 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T20" s="9" t="str">
+        <f>IF(ISTEXT(D20), ", {""ClassName"":""" &amp; LOWER(D20) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N20 &amp; ",""MinPriceThreshold"":" &amp; N20 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_bluetang","MaxPriceThreshold":356,"MinPriceThreshold":356,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R20" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_bluetangfilletmeat","MaxPriceThreshold":378,"MinPriceThreshold":378,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S20" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T20" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2222,75 +2239,77 @@
         <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
       <c r="I21" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J21" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
-        <v>5.3</v>
+        <f>(G21*$E$2)+(I21*$E$3)+(J21*$E$4)</f>
+        <v>7.2</v>
       </c>
       <c r="L21" s="6">
         <v>1</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
-        <v>994</v>
+        <f>ROUND($J$2 * K21 * L21 * IF(F21=1, $O$4, 1) * IF(H21=1, $O$2, 1),0)</f>
+        <v>1080</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>704</v>
+        <f>INT((M21/I21)*$O$3)</f>
+        <v>1530</v>
       </c>
       <c r="O21">
-        <f t="shared" si="8"/>
-        <v>4224</v>
+        <f>N21*I21</f>
+        <v>4590</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>ROUND(25*EXP(-0.5*((K21-5)/$J$4)^2), 0)</f>
+        <v>16</v>
       </c>
       <c r="Q21" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_bluegill","MaxPriceThreshold":994,"MinPriceThreshold":994,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B21) &amp; """,""MaxPriceThreshold"":" &amp; M21 &amp; ",""MinPriceThreshold"":" &amp; M21 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_brooktrout","MaxPriceThreshold":1080,"MinPriceThreshold":1080,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R21" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_bluegillfilletmeat","MaxPriceThreshold":704,"MinPriceThreshold":704,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B21) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N21 &amp; ",""MinPriceThreshold"":" &amp; N21 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_brooktroutfilletmeat","MaxPriceThreshold":1530,"MinPriceThreshold":1530,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S21" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C21), ", {""ClassName"":""" &amp; LOWER(C21) &amp; """,""MaxPriceThreshold"":" &amp; N21 &amp; ",""MinPriceThreshold"":" &amp; N21 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T21" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D21), ", {""ClassName"":""" &amp; LOWER(D21) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N21 &amp; ",""MinPriceThreshold"":" &amp; N21 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -2299,54 +2318,54 @@
         <v>5</v>
       </c>
       <c r="J22" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
+        <f>(G22*$E$2)+(I22*$E$3)+(J22*$E$4)</f>
+        <v>7.8</v>
       </c>
       <c r="L22" s="6">
         <v>1</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
-        <v>1200</v>
+        <f>ROUND($J$2 * K22 * L22 * IF(F22=1, $O$4, 1) * IF(H22=1, $O$2, 1),0)</f>
+        <v>1170</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
-        <v>1020</v>
+        <f>INT((M22/I22)*$O$3)</f>
+        <v>994</v>
       </c>
       <c r="O22">
-        <f t="shared" si="8"/>
-        <v>5100</v>
+        <f>N22*I22</f>
+        <v>4970</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>ROUND(25*EXP(-0.5*((K22-5)/$J$4)^2), 0)</f>
+        <v>12</v>
       </c>
       <c r="Q22" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_bonita","MaxPriceThreshold":1200,"MinPriceThreshold":1200,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B22) &amp; """,""MaxPriceThreshold"":" &amp; M22 &amp; ",""MinPriceThreshold"":" &amp; M22 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_browntrout","MaxPriceThreshold":1170,"MinPriceThreshold":1170,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R22" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_bonitafilletmeat","MaxPriceThreshold":1020,"MinPriceThreshold":1020,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B22) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N22 &amp; ",""MinPriceThreshold"":" &amp; N22 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_browntroutfilletmeat","MaxPriceThreshold":994,"MinPriceThreshold":994,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C22), ", {""ClassName"":""" &amp; LOWER(C22) &amp; """,""MaxPriceThreshold"":" &amp; N22 &amp; ",""MinPriceThreshold"":" &amp; N22 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T22" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D22), ", {""ClassName"":""" &amp; LOWER(D22) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N22 &amp; ",""MinPriceThreshold"":" &amp; N22 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2354,66 +2373,66 @@
         <v>1</v>
       </c>
       <c r="F23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
       </c>
       <c r="I23" s="6">
+        <v>7</v>
+      </c>
+      <c r="J23" s="6">
         <v>5</v>
       </c>
-      <c r="J23" s="6">
-        <v>3</v>
-      </c>
       <c r="K23">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
+        <f>(G23*$E$2)+(I23*$E$3)+(J23*$E$4)</f>
+        <v>5.6</v>
       </c>
       <c r="L23" s="6">
         <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
-        <v>675</v>
+        <f>ROUND($J$2 * K23 * L23 * IF(F23=1, $O$4, 1) * IF(H23=1, $O$2, 1),0)</f>
+        <v>840</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>573</v>
+        <f>INT((M23/I23)*$O$3)</f>
+        <v>510</v>
       </c>
       <c r="O23">
-        <f t="shared" si="8"/>
-        <v>2865</v>
+        <f>N23*I23</f>
+        <v>3570</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>ROUND(25*EXP(-0.5*((K23-5)/$J$4)^2), 0)</f>
+        <v>24</v>
       </c>
       <c r="Q23" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_bowfin","MaxPriceThreshold":675,"MinPriceThreshold":675,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B23) &amp; """,""MaxPriceThreshold"":" &amp; M23 &amp; ",""MinPriceThreshold"":" &amp; M23 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"carp","MaxPriceThreshold":840,"MinPriceThreshold":840,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R23" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_bowfinfilletmeat","MaxPriceThreshold":573,"MinPriceThreshold":573,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B23) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N23 &amp; ",""MinPriceThreshold"":" &amp; N23 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"carpfilletmeat","MaxPriceThreshold":510,"MinPriceThreshold":510,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S23" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C23), ", {""ClassName"":""" &amp; LOWER(C23) &amp; """,""MaxPriceThreshold"":" &amp; N23 &amp; ",""MinPriceThreshold"":" &amp; N23 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T23" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D23), ", {""ClassName"":""" &amp; LOWER(D23) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N23 &amp; ",""MinPriceThreshold"":" &amp; N23 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2424,71 +2443,69 @@
         <v>0</v>
       </c>
       <c r="G24" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="6">
         <v>0</v>
       </c>
       <c r="I24" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J24" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
+        <f>(G24*$E$2)+(I24*$E$3)+(J24*$E$4)</f>
+        <v>7.1</v>
       </c>
       <c r="L24" s="6">
         <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
-        <v>1080</v>
+        <f>ROUND($J$2 * K24 * L24 * IF(F24=1, $O$4, 1) * IF(H24=1, $O$2, 1),0)</f>
+        <v>1065</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>1530</v>
+        <f>INT((M24/I24)*$O$3)</f>
+        <v>905</v>
       </c>
       <c r="O24">
-        <f t="shared" si="8"/>
-        <v>4590</v>
+        <f>N24*I24</f>
+        <v>4525</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
+        <f>ROUND(25*EXP(-0.5*((K24-5)/$J$4)^2), 0)</f>
         <v>16</v>
       </c>
       <c r="Q24" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_brooktrout","MaxPriceThreshold":1080,"MinPriceThreshold":1080,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B24) &amp; """,""MaxPriceThreshold"":" &amp; M24 &amp; ",""MinPriceThreshold"":" &amp; M24 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_flatheadcatfish","MaxPriceThreshold":1065,"MinPriceThreshold":1065,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R24" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_brooktroutfilletmeat","MaxPriceThreshold":1530,"MinPriceThreshold":1530,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B24) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N24 &amp; ",""MinPriceThreshold"":" &amp; N24 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_flatheadcatfishfilletmeat","MaxPriceThreshold":905,"MinPriceThreshold":905,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S24" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C24), ", {""ClassName"":""" &amp; LOWER(C24) &amp; """,""MaxPriceThreshold"":" &amp; N24 &amp; ",""MinPriceThreshold"":" &amp; N24 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T24" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D24), ", {""ClassName"":""" &amp; LOWER(D24) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N24 &amp; ",""MinPriceThreshold"":" &amp; N24 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="6">
         <v>9</v>
@@ -2497,130 +2514,130 @@
         <v>0</v>
       </c>
       <c r="I25" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J25" s="6">
         <v>9</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
-        <v>7.8</v>
+        <f>(G25*$E$2)+(I25*$E$3)+(J25*$E$4)</f>
+        <v>7.2</v>
       </c>
       <c r="L25" s="6">
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
-        <v>1170</v>
+        <f>ROUND($J$2 * K25 * L25 * IF(F25=1, $O$4, 1) * IF(H25=1, $O$2, 1),0)</f>
+        <v>1350</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
-        <v>994</v>
+        <f>INT((M25/I25)*$O$3)</f>
+        <v>1912</v>
       </c>
       <c r="O25">
-        <f t="shared" si="8"/>
-        <v>4970</v>
+        <f>N25*I25</f>
+        <v>5736</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>ROUND(25*EXP(-0.5*((K25-5)/$J$4)^2), 0)</f>
+        <v>16</v>
       </c>
       <c r="Q25" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_browntrout","MaxPriceThreshold":1170,"MinPriceThreshold":1170,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B25) &amp; """,""MaxPriceThreshold"":" &amp; M25 &amp; ",""MinPriceThreshold"":" &amp; M25 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_cherrysalmon","MaxPriceThreshold":1350,"MinPriceThreshold":1350,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R25" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_browntroutfilletmeat","MaxPriceThreshold":994,"MinPriceThreshold":994,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B25) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N25 &amp; ",""MinPriceThreshold"":" &amp; N25 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_cherrysalmonfilletmeat","MaxPriceThreshold":1912,"MinPriceThreshold":1912,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S25" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C25), ", {""ClassName"":""" &amp; LOWER(C25) &amp; """,""MaxPriceThreshold"":" &amp; N25 &amp; ",""MinPriceThreshold"":" &amp; N25 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T25" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D25), ", {""ClassName"":""" &amp; LOWER(D25) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N25 &amp; ",""MinPriceThreshold"":" &amp; N25 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
       </c>
       <c r="I26" s="6">
+        <v>7</v>
+      </c>
+      <c r="J26" s="6">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <f>(G26*$E$2)+(I26*$E$3)+(J26*$E$4)</f>
+        <v>9.1</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f>ROUND($J$2 * K26 * L26 * IF(F26=1, $O$4, 1) * IF(H26=1, $O$2, 1),0)</f>
+        <v>1706</v>
+      </c>
+      <c r="N26">
+        <f>INT((M26/I26)*$O$3)</f>
+        <v>1035</v>
+      </c>
+      <c r="O26">
+        <f>N26*I26</f>
+        <v>7245</v>
+      </c>
+      <c r="P26">
+        <f>ROUND(25*EXP(-0.5*((K26-5)/$J$4)^2), 0)</f>
         <v>5</v>
       </c>
-      <c r="J26" s="6">
-        <v>8</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="4"/>
-        <v>1065</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
-        <v>905</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="8"/>
-        <v>4525</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
       <c r="Q26" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_flatheadcatfish","MaxPriceThreshold":1065,"MinPriceThreshold":1065,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B26) &amp; """,""MaxPriceThreshold"":" &amp; M26 &amp; ",""MinPriceThreshold"":" &amp; M26 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_chinooksalmon","MaxPriceThreshold":1706,"MinPriceThreshold":1706,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R26" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_flatheadcatfishfilletmeat","MaxPriceThreshold":905,"MinPriceThreshold":905,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B26) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N26 &amp; ",""MinPriceThreshold"":" &amp; N26 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_chinooksalmonfilletmeat","MaxPriceThreshold":1035,"MinPriceThreshold":1035,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S26" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C26), ", {""ClassName"":""" &amp; LOWER(C26) &amp; """,""MaxPriceThreshold"":" &amp; N26 &amp; ",""MinPriceThreshold"":" &amp; N26 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T26" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D26), ", {""ClassName"":""" &amp; LOWER(D26) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N26 &amp; ",""MinPriceThreshold"":" &amp; N26 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="6">
         <v>9</v>
@@ -2629,197 +2646,190 @@
         <v>0</v>
       </c>
       <c r="I27" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27" s="6">
         <v>9</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
+        <f>(G27*$E$2)+(I27*$E$3)+(J27*$E$4)</f>
+        <v>7.8</v>
       </c>
       <c r="L27" s="6">
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
-        <v>1350</v>
+        <f>ROUND($J$2 * K27 * L27 * IF(F27=1, $O$4, 1) * IF(H27=1, $O$2, 1),0)</f>
+        <v>1170</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
-        <v>1912</v>
+        <f>INT((M27/I27)*$O$3)</f>
+        <v>994</v>
       </c>
       <c r="O27">
-        <f t="shared" si="8"/>
-        <v>5736</v>
+        <f>N27*I27</f>
+        <v>4970</v>
       </c>
       <c r="P27">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f>ROUND(25*EXP(-0.5*((K27-5)/$J$4)^2), 0)</f>
+        <v>12</v>
       </c>
       <c r="Q27" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_cherrysalmon","MaxPriceThreshold":1350,"MinPriceThreshold":1350,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B27) &amp; """,""MaxPriceThreshold"":" &amp; M27 &amp; ",""MinPriceThreshold"":" &amp; M27 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_cutthroattrout","MaxPriceThreshold":1170,"MinPriceThreshold":1170,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R27" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_cherrysalmonfilletmeat","MaxPriceThreshold":1912,"MinPriceThreshold":1912,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B27) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N27 &amp; ",""MinPriceThreshold"":" &amp; N27 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_cutthroattroutfilletmeat","MaxPriceThreshold":994,"MinPriceThreshold":994,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S27" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISTEXT(C27), ", {""ClassName"":""" &amp; LOWER(C27) &amp; """,""MaxPriceThreshold"":" &amp; N27 &amp; ",""MinPriceThreshold"":" &amp; N27 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T27" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D27), ", {""ClassName"":""" &amp; LOWER(D27) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N27 &amp; ",""MinPriceThreshold"":" &amp; N27 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
+        <v>137</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="6">
+        <v>7</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <f>(G28*$E$2)+(I28*$E$3)+(J28*$E$4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f>ROUND($J$2 * K28 * L28 * IF(F28=1, $O$4, 1) * IF(H28=1, $O$2, 1),0)</f>
+        <v>1470</v>
+      </c>
+      <c r="N28" t="e">
+        <f>INT((M28/I28)*$O$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" t="e">
+        <f>N28*I28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28">
+        <f>ROUND(25*EXP(-0.5*((K28-5)/$J$4)^2), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q28" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B28) &amp; """,""MaxPriceThreshold"":" &amp; M28 &amp; ",""MinPriceThreshold"":" &amp; M28 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_europeancrayfish","MaxPriceThreshold":1470,"MinPriceThreshold":1470,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="T28" s="9" t="str">
+        <f>IF(ISTEXT(D28), ", {""ClassName"":""" &amp; LOWER(D28) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N28 &amp; ",""MinPriceThreshold"":" &amp; N28 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
         <v>10</v>
       </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
-        <v>7</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
+        <v>2</v>
+      </c>
+      <c r="J29" s="6">
         <v>10</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>9.1</v>
-      </c>
-      <c r="L28" s="6">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="4"/>
-        <v>1706</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
-        <v>1035</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="8"/>
-        <v>7245</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Q28" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_chinooksalmon","MaxPriceThreshold":1706,"MinPriceThreshold":1706,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R28" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_chinooksalmonfilletmeat","MaxPriceThreshold":1035,"MinPriceThreshold":1035,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S28" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T28" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>7</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1</v>
-      </c>
-      <c r="J29" s="6">
-        <v>7</v>
-      </c>
       <c r="K29">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
+        <f>(G29*$E$2)+(I29*$E$3)+(J29*$E$4)</f>
+        <v>7.6</v>
       </c>
       <c r="L29" s="6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
-        <v>1560</v>
+        <f>ROUND($J$2 * K29 * L29 * IF(F29=1, $O$4, 1) * IF(H29=1, $O$2, 1),0)</f>
+        <v>3563</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
-        <v>6630</v>
+        <f>INT((M29/I29)*$O$3)</f>
+        <v>7571</v>
       </c>
       <c r="O29">
-        <f t="shared" si="8"/>
-        <v>6630</v>
+        <f>N29*I29</f>
+        <v>15142</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>ROUND(25*EXP(-0.5*((K29-5)/$J$4)^2), 0)</f>
+        <v>13</v>
       </c>
       <c r="Q29" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_crayfish","MaxPriceThreshold":1560,"MinPriceThreshold":1560,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B29) &amp; """,""MaxPriceThreshold"":" &amp; M29 &amp; ",""MinPriceThreshold"":" &amp; M29 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_europeanlobster","MaxPriceThreshold":3563,"MinPriceThreshold":3563,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S29" s="9" t="str">
         <f>IF(ISTEXT(C29), ", {""ClassName"":""" &amp; LOWER(C29) &amp; """,""MaxPriceThreshold"":" &amp; N29 &amp; ",""MinPriceThreshold"":" &amp; N29 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
-        <v>, {"ClassName":"geb_crayfishtailmeat","MaxPriceThreshold":6630,"MinPriceThreshold":6630,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <v>, {"ClassName":"geb_europeanlobstertail","MaxPriceThreshold":7571,"MinPriceThreshold":7571,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="T29" s="9" t="str">
         <f>IF(ISTEXT(D29), ", {""ClassName"":""" &amp; LOWER(D29) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N29 &amp; ",""MinPriceThreshold"":" &amp; N29 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+        <v>, {"ClassName":"geb_europeanlobsterclaw","MaxPriceThreshold":7571,"MinPriceThreshold":7571,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H30" s="6">
         <v>0</v>
@@ -2828,54 +2838,54 @@
         <v>5</v>
       </c>
       <c r="J30" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
-        <v>7.8</v>
+        <f>(G30*$E$2)+(I30*$E$3)+(J30*$E$4)</f>
+        <v>6</v>
       </c>
       <c r="L30" s="6">
         <v>1</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
-        <v>1170</v>
+        <f>ROUND($J$2 * K30 * L30 * IF(F30=1, $O$4, 1) * IF(H30=1, $O$2, 1),0)</f>
+        <v>1125</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
-        <v>994</v>
+        <f>INT((M30/I30)*$O$3)</f>
+        <v>956</v>
       </c>
       <c r="O30">
-        <f t="shared" si="8"/>
-        <v>4970</v>
+        <f>N30*I30</f>
+        <v>4780</v>
       </c>
       <c r="P30">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>ROUND(25*EXP(-0.5*((K30-5)/$J$4)^2), 0)</f>
+        <v>23</v>
       </c>
       <c r="Q30" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_cutthroattrout","MaxPriceThreshold":1170,"MinPriceThreshold":1170,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B30) &amp; """,""MaxPriceThreshold"":" &amp; M30 &amp; ",""MinPriceThreshold"":" &amp; M30 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_flatheadmullet","MaxPriceThreshold":1125,"MinPriceThreshold":1125,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R30" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_cutthroattroutfilletmeat","MaxPriceThreshold":994,"MinPriceThreshold":994,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B30) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N30 &amp; ",""MinPriceThreshold"":" &amp; N30 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_flatheadmulletfilletmeat","MaxPriceThreshold":956,"MinPriceThreshold":956,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S30" s="9" t="str">
-        <f t="shared" ref="S30:S63" si="9">IF(ISTEXT(C30), ", {""ClassName"":""" &amp; LOWER(C30) &amp; """,""MaxPriceThreshold"":" &amp; N30 &amp; ",""MinPriceThreshold"":" &amp; N30 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <f>IF(ISTEXT(C30), ", {""ClassName"":""" &amp; LOWER(C30) &amp; """,""MaxPriceThreshold"":" &amp; N30 &amp; ",""MinPriceThreshold"":" &amp; N30 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T30" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D30), ", {""ClassName"":""" &amp; LOWER(D30) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N30 &amp; ",""MinPriceThreshold"":" &amp; N30 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2884,63 +2894,63 @@
         <v>1</v>
       </c>
       <c r="G31" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H31" s="6">
         <v>0</v>
       </c>
       <c r="I31" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J31" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>(G31*$E$2)+(I31*$E$3)+(J31*$E$4)</f>
+        <v>3</v>
       </c>
       <c r="L31" s="6">
         <v>1</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
-        <v>1125</v>
+        <f>ROUND($J$2 * K31 * L31 * IF(F31=1, $O$4, 1) * IF(H31=1, $O$2, 1),0)</f>
+        <v>563</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
-        <v>956</v>
+        <f>INT((M31/I31)*$O$3)</f>
+        <v>239</v>
       </c>
       <c r="O31">
-        <f t="shared" si="8"/>
-        <v>4780</v>
+        <f>N31*I31</f>
+        <v>2390</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f>ROUND(25*EXP(-0.5*((K31-5)/$J$4)^2), 0)</f>
+        <v>17</v>
       </c>
       <c r="Q31" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_flatheadmullet","MaxPriceThreshold":1125,"MinPriceThreshold":1125,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B31) &amp; """,""MaxPriceThreshold"":" &amp; M31 &amp; ",""MinPriceThreshold"":" &amp; M31 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_greatwhiteshark","MaxPriceThreshold":563,"MinPriceThreshold":563,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R31" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_flatheadmulletfilletmeat","MaxPriceThreshold":956,"MinPriceThreshold":956,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B31) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N31 &amp; ",""MinPriceThreshold"":" &amp; N31 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_greatwhitesharkfilletmeat","MaxPriceThreshold":239,"MinPriceThreshold":239,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S31" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C31), ", {""ClassName"":""" &amp; LOWER(C31) &amp; """,""MaxPriceThreshold"":" &amp; N31 &amp; ",""MinPriceThreshold"":" &amp; N31 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T31" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D31), ", {""ClassName"":""" &amp; LOWER(D31) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N31 &amp; ",""MinPriceThreshold"":" &amp; N31 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2949,404 +2959,400 @@
         <v>1</v>
       </c>
       <c r="G32" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="6">
         <v>0</v>
       </c>
       <c r="I32" s="6">
+        <v>8</v>
+      </c>
+      <c r="J32" s="6">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <f>(G32*$E$2)+(I32*$E$3)+(J32*$E$4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f>ROUND($J$2 * K32 * L32 * IF(F32=1, $O$4, 1) * IF(H32=1, $O$2, 1),0)</f>
+        <v>844</v>
+      </c>
+      <c r="N32">
+        <f>INT((M32/I32)*$O$3)</f>
+        <v>448</v>
+      </c>
+      <c r="O32">
+        <f>N32*I32</f>
+        <v>3584</v>
+      </c>
+      <c r="P32">
+        <f>ROUND(25*EXP(-0.5*((K32-5)/$J$4)^2), 0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q32" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B32) &amp; """,""MaxPriceThreshold"":" &amp; M32 &amp; ",""MinPriceThreshold"":" &amp; M32 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_humpheadwrasse","MaxPriceThreshold":844,"MinPriceThreshold":844,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R32" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B32) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N32 &amp; ",""MinPriceThreshold"":" &amp; N32 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_humpheadwrassefilletmeat","MaxPriceThreshold":448,"MinPriceThreshold":448,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S32" s="9" t="str">
+        <f>IF(ISTEXT(C32), ", {""ClassName"":""" &amp; LOWER(C32) &amp; """,""MaxPriceThreshold"":" &amp; N32 &amp; ",""MinPriceThreshold"":" &amp; N32 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T32" s="9" t="str">
+        <f>IF(ISTEXT(D32), ", {""ClassName"":""" &amp; LOWER(D32) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N32 &amp; ",""MinPriceThreshold"":" &amp; N32 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
         <v>10</v>
       </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L32" s="6">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="4"/>
-        <v>563</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
-        <v>239</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="8"/>
-        <v>2390</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="Q32" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_greatwhiteshark","MaxPriceThreshold":563,"MinPriceThreshold":563,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R32" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_greatwhitesharkfilletmeat","MaxPriceThreshold":239,"MinPriceThreshold":239,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S32" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T32" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6">
-        <v>7</v>
-      </c>
       <c r="H33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="6">
         <v>9</v>
       </c>
       <c r="J33" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <f>(G33*$E$2)+(I33*$E$3)+(J33*$E$4)</f>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L33" s="6">
         <v>1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
-        <v>1200</v>
+        <f>ROUND($J$2 * K33 * L33 * IF(F33=1, $O$4, 1) * IF(H33=1, $O$2, 1),0)</f>
+        <v>3638</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
-        <v>566</v>
+        <f>INT((M33/I33)*$O$3)</f>
+        <v>1717</v>
       </c>
       <c r="O33">
-        <f t="shared" si="8"/>
-        <v>5094</v>
+        <f>N33*I33</f>
+        <v>15453</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>ROUND(25*EXP(-0.5*((K33-5)/$J$4)^2), 0)</f>
+        <v>3</v>
       </c>
       <c r="Q33" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_largeheadhairtailfish","MaxPriceThreshold":1200,"MinPriceThreshold":1200,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R33" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_largeheadhairtailfishfilletmeat","MaxPriceThreshold":566,"MinPriceThreshold":566,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B33) &amp; """,""MaxPriceThreshold"":" &amp; M33 &amp; ",""MinPriceThreshold"":" &amp; M33 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_kingcrab","MaxPriceThreshold":3638,"MinPriceThreshold":3638,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S33" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C33), ", {""ClassName"":""" &amp; LOWER(C33) &amp; """,""MaxPriceThreshold"":" &amp; N33 &amp; ",""MinPriceThreshold"":" &amp; N33 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v>, {"ClassName":"geb_kingcrablegs","MaxPriceThreshold":1717,"MinPriceThreshold":1717,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="T33" s="9" t="str">
+        <f>IF(ISTEXT(D33), ", {""ClassName"":""" &amp; LOWER(D33) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N33 &amp; ",""MinPriceThreshold"":" &amp; N33 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
-      <c r="T33" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H34" s="6">
         <v>0</v>
       </c>
       <c r="I34" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J34" s="6">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <f>(G34*$E$2)+(I34*$E$3)+(J34*$E$4)</f>
+        <v>7.8</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f>ROUND($J$2 * K34 * L34 * IF(F34=1, $O$4, 1) * IF(H34=1, $O$2, 1),0)</f>
+        <v>1170</v>
+      </c>
+      <c r="N34">
+        <f>INT((M34/I34)*$O$3)</f>
+        <v>994</v>
+      </c>
+      <c r="O34">
+        <f>N34*I34</f>
+        <v>4970</v>
+      </c>
+      <c r="P34">
+        <f>ROUND(25*EXP(-0.5*((K34-5)/$J$4)^2), 0)</f>
+        <v>12</v>
+      </c>
+      <c r="Q34" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B34) &amp; """,""MaxPriceThreshold"":" &amp; M34 &amp; ",""MinPriceThreshold"":" &amp; M34 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_laketrout","MaxPriceThreshold":1170,"MinPriceThreshold":1170,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R34" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B34) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N34 &amp; ",""MinPriceThreshold"":" &amp; N34 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_laketroutfilletmeat","MaxPriceThreshold":994,"MinPriceThreshold":994,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S34" s="9" t="str">
+        <f>IF(ISTEXT(C34), ", {""ClassName"":""" &amp; LOWER(C34) &amp; """,""MaxPriceThreshold"":" &amp; N34 &amp; ",""MinPriceThreshold"":" &amp; N34 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T34" s="9" t="str">
+        <f>IF(ISTEXT(D34), ", {""ClassName"":""" &amp; LOWER(D34) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N34 &amp; ",""MinPriceThreshold"":" &amp; N34 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>7</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>9</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f>(G35*$E$2)+(I35*$E$3)+(J35*$E$4)</f>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="L35" s="6">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f>ROUND($J$2 * K35 * L35 * IF(F35=1, $O$4, 1) * IF(H35=1, $O$2, 1),0)</f>
+        <v>1200</v>
+      </c>
+      <c r="N35">
+        <f>INT((M35/I35)*$O$3)</f>
+        <v>566</v>
+      </c>
+      <c r="O35">
+        <f>N35*I35</f>
+        <v>5094</v>
+      </c>
+      <c r="P35">
+        <f>ROUND(25*EXP(-0.5*((K35-5)/$J$4)^2), 0)</f>
+        <v>21</v>
+      </c>
+      <c r="Q35" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B35) &amp; """,""MaxPriceThreshold"":" &amp; M35 &amp; ",""MinPriceThreshold"":" &amp; M35 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_largeheadhairtailfish","MaxPriceThreshold":1200,"MinPriceThreshold":1200,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R35" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B35) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N35 &amp; ",""MinPriceThreshold"":" &amp; N35 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_largeheadhairtailfishfilletmeat","MaxPriceThreshold":566,"MinPriceThreshold":566,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S35" s="9" t="str">
+        <f>IF(ISTEXT(C35), ", {""ClassName"":""" &amp; LOWER(C35) &amp; """,""MaxPriceThreshold"":" &amp; N35 &amp; ",""MinPriceThreshold"":" &amp; N35 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T35" s="9" t="str">
+        <f>IF(ISTEXT(D35), ", {""ClassName"":""" &amp; LOWER(D35) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N35 &amp; ",""MinPriceThreshold"":" &amp; N35 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>6</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>5</v>
+      </c>
+      <c r="J36" s="6">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <f>(G36*$E$2)+(I36*$E$3)+(J36*$E$4)</f>
+        <v>5.7</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <f>ROUND($J$2 * K36 * L36 * IF(F36=1, $O$4, 1) * IF(H36=1, $O$2, 1),0)</f>
+        <v>855</v>
+      </c>
+      <c r="N36">
+        <f>INT((M36/I36)*$O$3)</f>
+        <v>726</v>
+      </c>
+      <c r="O36">
+        <f>N36*I36</f>
+        <v>3630</v>
+      </c>
+      <c r="P36">
+        <f>ROUND(25*EXP(-0.5*((K36-5)/$J$4)^2), 0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q36" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B36) &amp; """,""MaxPriceThreshold"":" &amp; M36 &amp; ",""MinPriceThreshold"":" &amp; M36 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_largemouthbass","MaxPriceThreshold":855,"MinPriceThreshold":855,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R36" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B36) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N36 &amp; ",""MinPriceThreshold"":" &amp; N36 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_largemouthbassfilletmeat","MaxPriceThreshold":726,"MinPriceThreshold":726,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S36" s="9" t="str">
+        <f>IF(ISTEXT(C36), ", {""ClassName"":""" &amp; LOWER(C36) &amp; """,""MaxPriceThreshold"":" &amp; N36 &amp; ",""MinPriceThreshold"":" &amp; N36 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T36" s="9" t="str">
+        <f>IF(ISTEXT(D36), ", {""ClassName"":""" &amp; LOWER(D36) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N36 &amp; ",""MinPriceThreshold"":" &amp; N36 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
         <v>3</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="L34" s="6">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="4"/>
-        <v>844</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
-        <v>448</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="8"/>
-        <v>3584</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="Q34" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_humpheadwrasse","MaxPriceThreshold":844,"MinPriceThreshold":844,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R34" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_humpheadwrassefilletmeat","MaxPriceThreshold":448,"MinPriceThreshold":448,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S34" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T34" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <v>2</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6">
-        <v>1</v>
-      </c>
-      <c r="J35" s="6">
-        <v>2</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="L35" s="6">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="4"/>
-        <v>638</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
-        <v>2711</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="8"/>
-        <v>2711</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Q35" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_bluejellyfish","MaxPriceThreshold":638,"MinPriceThreshold":638,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R35" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_bluejellyfishfilletmeat","MaxPriceThreshold":2711,"MinPriceThreshold":2711,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S35" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T35" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="6">
-        <v>10</v>
-      </c>
-      <c r="H36" s="6">
-        <v>1</v>
-      </c>
-      <c r="I36" s="6">
-        <v>9</v>
-      </c>
-      <c r="J36" s="6">
-        <v>10</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="L36" s="6">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="4"/>
-        <v>3638</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
-        <v>1717</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="8"/>
-        <v>15453</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q36" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_kingcrab","MaxPriceThreshold":3638,"MinPriceThreshold":3638,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R36" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_kingcrabfilletmeat","MaxPriceThreshold":1717,"MinPriceThreshold":1717,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S36" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T36" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>, {"ClassName":"geb_kingcrablegs","MaxPriceThreshold":1717,"MinPriceThreshold":1717,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <v>9</v>
       </c>
       <c r="H37" s="6">
         <v>0</v>
       </c>
       <c r="I37" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J37" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
-        <v>7.8</v>
+        <f>(G37*$E$2)+(I37*$E$3)+(J37*$E$4)</f>
+        <v>4.2</v>
       </c>
       <c r="L37" s="6">
         <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
-        <v>1170</v>
+        <f>ROUND($J$2 * K37 * L37 * IF(F37=1, $O$4, 1) * IF(H37=1, $O$2, 1),0)</f>
+        <v>788</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
-        <v>994</v>
+        <f>INT((M37/I37)*$O$3)</f>
+        <v>478</v>
       </c>
       <c r="O37">
-        <f t="shared" si="8"/>
-        <v>4970</v>
+        <f>N37*I37</f>
+        <v>3346</v>
       </c>
       <c r="P37">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>ROUND(25*EXP(-0.5*((K37-5)/$J$4)^2), 0)</f>
+        <v>23</v>
       </c>
       <c r="Q37" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_laketrout","MaxPriceThreshold":1170,"MinPriceThreshold":1170,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B37) &amp; """,""MaxPriceThreshold"":" &amp; M37 &amp; ",""MinPriceThreshold"":" &amp; M37 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_leopardshark","MaxPriceThreshold":788,"MinPriceThreshold":788,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R37" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_laketroutfilletmeat","MaxPriceThreshold":994,"MinPriceThreshold":994,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B37) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N37 &amp; ",""MinPriceThreshold"":" &amp; N37 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_leopardsharkfilletmeat","MaxPriceThreshold":478,"MinPriceThreshold":478,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S37" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C37), ", {""ClassName"":""" &amp; LOWER(C37) &amp; """,""MaxPriceThreshold"":" &amp; N37 &amp; ",""MinPriceThreshold"":" &amp; N37 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T37" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D37), ", {""ClassName"":""" &amp; LOWER(D37) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N37 &amp; ",""MinPriceThreshold"":" &amp; N37 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H38" s="6">
         <v>0</v>
@@ -3355,54 +3361,54 @@
         <v>5</v>
       </c>
       <c r="J38" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
+        <f>(G38*$E$2)+(I38*$E$3)+(J38*$E$4)</f>
+        <v>6.9</v>
       </c>
       <c r="L38" s="6">
         <v>1</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
-        <v>855</v>
+        <f>ROUND($J$2 * K38 * L38 * IF(F38=1, $O$4, 1) * IF(H38=1, $O$2, 1),0)</f>
+        <v>1294</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
-        <v>726</v>
+        <f>INT((M38/I38)*$O$3)</f>
+        <v>1099</v>
       </c>
       <c r="O38">
-        <f t="shared" si="8"/>
-        <v>3630</v>
+        <f>N38*I38</f>
+        <v>5495</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>ROUND(25*EXP(-0.5*((K38-5)/$J$4)^2), 0)</f>
+        <v>18</v>
       </c>
       <c r="Q38" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_largemouthbass","MaxPriceThreshold":855,"MinPriceThreshold":855,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B38) &amp; """,""MaxPriceThreshold"":" &amp; M38 &amp; ",""MinPriceThreshold"":" &amp; M38 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"mackerel","MaxPriceThreshold":1294,"MinPriceThreshold":1294,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R38" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_largemouthbassfilletmeat","MaxPriceThreshold":726,"MinPriceThreshold":726,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B38) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N38 &amp; ",""MinPriceThreshold"":" &amp; N38 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"mackerelfilletmeat","MaxPriceThreshold":1099,"MinPriceThreshold":1099,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S38" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C38), ", {""ClassName"":""" &amp; LOWER(C38) &amp; """,""MaxPriceThreshold"":" &amp; N38 &amp; ",""MinPriceThreshold"":" &amp; N38 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T38" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D38), ", {""ClassName"":""" &amp; LOWER(D38) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N38 &amp; ",""MinPriceThreshold"":" &amp; N38 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3411,196 +3417,196 @@
         <v>1</v>
       </c>
       <c r="G39" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
       <c r="I39" s="6">
+        <v>2</v>
+      </c>
+      <c r="J39" s="6">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <f>(G39*$E$2)+(I39*$E$3)+(J39*$E$4)</f>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="L39" s="6">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f>ROUND($J$2 * K39 * L39 * IF(F39=1, $O$4, 1) * IF(H39=1, $O$2, 1),0)</f>
+        <v>1294</v>
+      </c>
+      <c r="N39">
+        <f>INT((M39/I39)*$O$3)</f>
+        <v>2749</v>
+      </c>
+      <c r="O39">
+        <f>N39*I39</f>
+        <v>5498</v>
+      </c>
+      <c r="P39">
+        <f>ROUND(25*EXP(-0.5*((K39-5)/$J$4)^2), 0)</f>
+        <v>18</v>
+      </c>
+      <c r="Q39" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B39) &amp; """,""MaxPriceThreshold"":" &amp; M39 &amp; ",""MinPriceThreshold"":" &amp; M39 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_mahimahi","MaxPriceThreshold":1294,"MinPriceThreshold":1294,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R39" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B39) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N39 &amp; ",""MinPriceThreshold"":" &amp; N39 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_mahimahifilletmeat","MaxPriceThreshold":2749,"MinPriceThreshold":2749,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S39" s="9" t="str">
+        <f>IF(ISTEXT(C39), ", {""ClassName"":""" &amp; LOWER(C39) &amp; """,""MaxPriceThreshold"":" &amp; N39 &amp; ",""MinPriceThreshold"":" &amp; N39 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T39" s="9" t="str">
+        <f>IF(ISTEXT(D39), ", {""ClassName"":""" &amp; LOWER(D39) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N39 &amp; ",""MinPriceThreshold"":" &amp; N39 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>2</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>2</v>
+      </c>
+      <c r="J40" s="6">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <f>(G40*$E$2)+(I40*$E$3)+(J40*$E$4)</f>
+        <v>2</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <f>ROUND($J$2 * K40 * L40 * IF(F40=1, $O$4, 1) * IF(H40=1, $O$2, 1),0)</f>
+        <v>375</v>
+      </c>
+      <c r="N40">
+        <f>INT((M40/I40)*$O$3)</f>
+        <v>796</v>
+      </c>
+      <c r="O40">
+        <f>N40*I40</f>
+        <v>1592</v>
+      </c>
+      <c r="P40">
+        <f>ROUND(25*EXP(-0.5*((K40-5)/$J$4)^2), 0)</f>
+        <v>10</v>
+      </c>
+      <c r="Q40" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B40) &amp; """,""MaxPriceThreshold"":" &amp; M40 &amp; ",""MinPriceThreshold"":" &amp; M40 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_fatheadminnow","MaxPriceThreshold":375,"MinPriceThreshold":375,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R40" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B40) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N40 &amp; ",""MinPriceThreshold"":" &amp; N40 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_fatheadminnowfilletmeat","MaxPriceThreshold":796,"MinPriceThreshold":796,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S40" s="9" t="str">
+        <f>IF(ISTEXT(C40), ", {""ClassName"":""" &amp; LOWER(C40) &amp; """,""MaxPriceThreshold"":" &amp; N40 &amp; ",""MinPriceThreshold"":" &amp; N40 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T40" s="9" t="str">
+        <f>IF(ISTEXT(D40), ", {""ClassName"":""" &amp; LOWER(D40) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N40 &amp; ",""MinPriceThreshold"":" &amp; N40 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>8</v>
+      </c>
+      <c r="H41" s="6">
+        <v>4</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
         <v>7</v>
       </c>
-      <c r="J39" s="6">
-        <v>3</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ref="K39:K63" si="10">(G39*$E$2)+(I39*$E$3)+(J39*$E$4)</f>
-        <v>4.2</v>
-      </c>
-      <c r="L39" s="6">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="4"/>
-        <v>788</v>
-      </c>
-      <c r="N39">
-        <f t="shared" ref="N39:N63" si="11">INT((M39/I39)*$O$3)</f>
-        <v>478</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="8"/>
-        <v>3346</v>
-      </c>
-      <c r="P39">
-        <f t="shared" ref="P39:P63" si="12">ROUND(25*EXP(-0.5*((K39-5)/$J$4)^2), 0)</f>
-        <v>23</v>
-      </c>
-      <c r="Q39" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_leopardshark","MaxPriceThreshold":788,"MinPriceThreshold":788,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R39" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_leopardsharkfilletmeat","MaxPriceThreshold":478,"MinPriceThreshold":478,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S39" s="9" t="str">
-        <f t="shared" si="9"/>
+      <c r="K41">
+        <f>(G41*$E$2)+(I41*$E$3)+(J41*$E$4)</f>
+        <v>5.4</v>
+      </c>
+      <c r="L41" s="6">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <f>ROUND($J$2 * K41 * L41 * IF(F41=1, $O$4, 1) * IF(H41=1, $O$2, 1),0)</f>
+        <v>810</v>
+      </c>
+      <c r="N41" t="e">
+        <f>INT((M41/I41)*$O$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" t="e">
+        <f>N41*I41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41">
+        <f>ROUND(25*EXP(-0.5*((K41-5)/$J$4)^2), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q41" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B41) &amp; """,""MaxPriceThreshold"":" &amp; M41 &amp; ",""MinPriceThreshold"":" &amp; M41 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_mussel","MaxPriceThreshold":810,"MinPriceThreshold":810,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="S41" s="9" t="str">
+        <f>IF(ISTEXT(C41), ", {""ClassName"":""" &amp; LOWER(C41) &amp; """,""MaxPriceThreshold"":" &amp; N41 &amp; ",""MinPriceThreshold"":" &amp; N41 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
-      <c r="T39" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="T41" s="9" t="str">
+        <f>IF(ISTEXT(D41), ", {""ClassName"":""" &amp; LOWER(D41) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N41 &amp; ",""MinPriceThreshold"":" &amp; N41 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
-        <v>10</v>
-      </c>
-      <c r="H40" s="6">
-        <v>1</v>
-      </c>
-      <c r="I40" s="6">
-        <v>8</v>
-      </c>
-      <c r="J40" s="6">
-        <v>10</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="10"/>
-        <v>9.4</v>
-      </c>
-      <c r="L40" s="6">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="4"/>
-        <v>3525</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="11"/>
-        <v>1872</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="8"/>
-        <v>14976</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="Q40" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_lobster","MaxPriceThreshold":3525,"MinPriceThreshold":3525,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R40" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_lobsterfilletmeat","MaxPriceThreshold":1872,"MinPriceThreshold":1872,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S40" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T40" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>, {"ClassName":"geb_lobstertail","MaxPriceThreshold":1872,"MinPriceThreshold":1872,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6">
-        <v>9</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>2</v>
-      </c>
-      <c r="J41" s="6">
-        <v>9</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="10"/>
-        <v>6.8999999999999995</v>
-      </c>
-      <c r="L41" s="6">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="4"/>
-        <v>1294</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="11"/>
-        <v>2749</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="8"/>
-        <v>5498</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="Q41" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_mahimahi","MaxPriceThreshold":1294,"MinPriceThreshold":1294,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R41" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_mahimahifilletmeat","MaxPriceThreshold":2749,"MinPriceThreshold":2749,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S41" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T41" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>42</v>
+    <row r="42" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -3608,133 +3614,131 @@
         <v>1</v>
       </c>
       <c r="F42" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H42" s="6">
         <v>0</v>
       </c>
       <c r="I42" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K42">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f>(G42*$E$2)+(I42*$E$3)+(J42*$E$4)</f>
+        <v>5.4</v>
       </c>
       <c r="L42" s="6">
         <v>1</v>
       </c>
       <c r="M42">
-        <f t="shared" si="4"/>
-        <v>375</v>
+        <f>ROUND($J$2 * K42 * L42 * IF(F42=1, $O$4, 1) * IF(H42=1, $O$2, 1),0)</f>
+        <v>810</v>
       </c>
       <c r="N42">
-        <f t="shared" si="11"/>
-        <v>796</v>
+        <f>INT((M42/I42)*$O$3)</f>
+        <v>860</v>
       </c>
       <c r="O42">
-        <f t="shared" si="8"/>
-        <v>1592</v>
+        <f>N42*I42</f>
+        <v>3440</v>
       </c>
       <c r="P42">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f>ROUND(25*EXP(-0.5*((K42-5)/$J$4)^2), 0)</f>
+        <v>25</v>
       </c>
       <c r="Q42" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_fatheadminnow","MaxPriceThreshold":375,"MinPriceThreshold":375,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B42) &amp; """,""MaxPriceThreshold"":" &amp; M42 &amp; ",""MinPriceThreshold"":" &amp; M42 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_northernpike","MaxPriceThreshold":810,"MinPriceThreshold":810,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R42" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_fatheadminnowfilletmeat","MaxPriceThreshold":796,"MinPriceThreshold":796,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B42) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N42 &amp; ",""MinPriceThreshold"":" &amp; N42 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_northernpikefilletmeat","MaxPriceThreshold":860,"MinPriceThreshold":860,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S42" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C42), ", {""ClassName"":""" &amp; LOWER(C42) &amp; """,""MaxPriceThreshold"":" &amp; N42 &amp; ",""MinPriceThreshold"":" &amp; N42 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T42" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D42), ", {""ClassName"":""" &amp; LOWER(D42) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N42 &amp; ",""MinPriceThreshold"":" &amp; N42 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>9</v>
+      </c>
+      <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="G43" s="6">
+      <c r="I43" s="6">
+        <v>4</v>
+      </c>
+      <c r="J43" s="6">
         <v>8</v>
       </c>
-      <c r="H43" s="6">
-        <v>4</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
-      <c r="J43" s="6">
-        <v>7</v>
-      </c>
       <c r="K43">
-        <f t="shared" si="10"/>
-        <v>5.7</v>
+        <f>(G43*$E$2)+(I43*$E$3)+(J43*$E$4)</f>
+        <v>7.3000000000000007</v>
       </c>
       <c r="L43" s="6">
         <v>1</v>
       </c>
       <c r="M43">
-        <f t="shared" si="4"/>
-        <v>855</v>
+        <f>ROUND($J$2 * K43 * L43 * IF(F43=1, $O$4, 1) * IF(H43=1, $O$2, 1),0)</f>
+        <v>1369</v>
       </c>
       <c r="N43">
-        <f t="shared" si="11"/>
-        <v>3633</v>
+        <f>INT((M43/I43)*$O$3)</f>
+        <v>1454</v>
       </c>
       <c r="O43">
-        <f t="shared" ref="O43:O62" si="13">N43*I43</f>
-        <v>3633</v>
+        <f>N43*I43</f>
+        <v>5816</v>
       </c>
       <c r="P43">
-        <f t="shared" si="12"/>
-        <v>24</v>
+        <f>ROUND(25*EXP(-0.5*((K43-5)/$J$4)^2), 0)</f>
+        <v>15</v>
       </c>
       <c r="Q43" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_mussel","MaxPriceThreshold":855,"MinPriceThreshold":855,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B43) &amp; """,""MaxPriceThreshold"":" &amp; M43 &amp; ",""MinPriceThreshold"":" &amp; M43 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_pacificcod","MaxPriceThreshold":1369,"MinPriceThreshold":1369,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R43" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_musselfilletmeat","MaxPriceThreshold":3633,"MinPriceThreshold":3633,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B43) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N43 &amp; ",""MinPriceThreshold"":" &amp; N43 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_pacificcodfilletmeat","MaxPriceThreshold":1454,"MinPriceThreshold":1454,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S43" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C43), ", {""ClassName"":""" &amp; LOWER(C43) &amp; """,""MaxPriceThreshold"":" &amp; N43 &amp; ",""MinPriceThreshold"":" &amp; N43 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T43" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D43), ", {""ClassName"":""" &amp; LOWER(D43) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N43 &amp; ",""MinPriceThreshold"":" &amp; N43 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -3745,139 +3749,139 @@
         <v>0</v>
       </c>
       <c r="G44" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H44" s="6">
         <v>0</v>
       </c>
       <c r="I44" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J44" s="6">
         <v>6</v>
       </c>
       <c r="K44">
-        <f t="shared" si="10"/>
-        <v>5.4</v>
+        <f>(G44*$E$2)+(I44*$E$3)+(J44*$E$4)</f>
+        <v>6.7</v>
       </c>
       <c r="L44" s="6">
         <v>1</v>
       </c>
       <c r="M44">
-        <f t="shared" si="4"/>
-        <v>810</v>
+        <f>ROUND($J$2 * K44 * L44 * IF(F44=1, $O$4, 1) * IF(H44=1, $O$2, 1),0)</f>
+        <v>1005</v>
       </c>
       <c r="N44">
-        <f t="shared" si="11"/>
-        <v>860</v>
+        <f>INT((M44/I44)*$O$3)</f>
+        <v>854</v>
       </c>
       <c r="O44">
-        <f t="shared" si="13"/>
-        <v>3440</v>
+        <f>N44*I44</f>
+        <v>4270</v>
       </c>
       <c r="P44">
-        <f t="shared" si="12"/>
-        <v>25</v>
+        <f>ROUND(25*EXP(-0.5*((K44-5)/$J$4)^2), 0)</f>
+        <v>19</v>
       </c>
       <c r="Q44" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_northernpike","MaxPriceThreshold":810,"MinPriceThreshold":810,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B44) &amp; """,""MaxPriceThreshold"":" &amp; M44 &amp; ",""MinPriceThreshold"":" &amp; M44 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_yellowperch","MaxPriceThreshold":1005,"MinPriceThreshold":1005,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R44" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_northernpikefilletmeat","MaxPriceThreshold":860,"MinPriceThreshold":860,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B44) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N44 &amp; ",""MinPriceThreshold"":" &amp; N44 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_yellowperchfilletmeat","MaxPriceThreshold":854,"MinPriceThreshold":854,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S44" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C44), ", {""ClassName"":""" &amp; LOWER(C44) &amp; """,""MaxPriceThreshold"":" &amp; N44 &amp; ",""MinPriceThreshold"":" &amp; N44 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T44" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D44), ", {""ClassName"":""" &amp; LOWER(D44) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N44 &amp; ",""MinPriceThreshold"":" &amp; N44 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5">
         <v>1</v>
       </c>
       <c r="F45" s="5">
-        <v>1</v>
-      </c>
-      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
         <v>9</v>
       </c>
       <c r="H45" s="6">
         <v>0</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="5">
         <v>4</v>
       </c>
-      <c r="J45" s="6">
-        <v>8</v>
+      <c r="J45" s="5">
+        <v>9</v>
       </c>
       <c r="K45">
-        <f t="shared" si="10"/>
-        <v>7.3000000000000007</v>
+        <f>(G45*$E$2)+(I45*$E$3)+(J45*$E$4)</f>
+        <v>7.5</v>
       </c>
       <c r="L45" s="6">
         <v>1</v>
       </c>
       <c r="M45">
-        <f t="shared" si="4"/>
-        <v>1369</v>
+        <f>ROUND($J$2 * K45 * L45 * IF(F45=1, $O$4, 1) * IF(H45=1, $O$2, 1),0)</f>
+        <v>1125</v>
       </c>
       <c r="N45">
-        <f t="shared" si="11"/>
-        <v>1454</v>
+        <f>INT((M45/I45)*$O$3)</f>
+        <v>1195</v>
       </c>
       <c r="O45">
-        <f t="shared" si="13"/>
-        <v>5816</v>
+        <f>N45*I45</f>
+        <v>4780</v>
       </c>
       <c r="P45">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f>ROUND(25*EXP(-0.5*((K45-5)/$J$4)^2), 0)</f>
+        <v>13</v>
       </c>
       <c r="Q45" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_pacificcod","MaxPriceThreshold":1369,"MinPriceThreshold":1369,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B45) &amp; """,""MaxPriceThreshold"":" &amp; M45 &amp; ",""MinPriceThreshold"":" &amp; M45 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_rainbowtrout","MaxPriceThreshold":1125,"MinPriceThreshold":1125,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R45" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_pacificcodfilletmeat","MaxPriceThreshold":1454,"MinPriceThreshold":1454,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B45) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N45 &amp; ",""MinPriceThreshold"":" &amp; N45 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_rainbowtroutfilletmeat","MaxPriceThreshold":1195,"MinPriceThreshold":1195,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S45" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C45), ", {""ClassName"":""" &amp; LOWER(C45) &amp; """,""MaxPriceThreshold"":" &amp; N45 &amp; ",""MinPriceThreshold"":" &amp; N45 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T45" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D45), ", {""ClassName"":""" &amp; LOWER(D45) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N45 &amp; ",""MinPriceThreshold"":" &amp; N45 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H46" s="6">
         <v>0</v>
@@ -3886,122 +3890,122 @@
         <v>5</v>
       </c>
       <c r="J46" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K46">
-        <f t="shared" si="10"/>
-        <v>6.7</v>
+        <f>(G46*$E$2)+(I46*$E$3)+(J46*$E$4)</f>
+        <v>2.9</v>
       </c>
       <c r="L46" s="6">
         <v>1</v>
       </c>
       <c r="M46">
-        <f t="shared" si="4"/>
-        <v>1005</v>
+        <f>ROUND($J$2 * K46 * L46 * IF(F46=1, $O$4, 1) * IF(H46=1, $O$2, 1),0)</f>
+        <v>544</v>
       </c>
       <c r="N46">
-        <f t="shared" si="11"/>
-        <v>854</v>
+        <f>INT((M46/I46)*$O$3)</f>
+        <v>462</v>
       </c>
       <c r="O46">
-        <f t="shared" si="13"/>
-        <v>4270</v>
+        <f>N46*I46</f>
+        <v>2310</v>
       </c>
       <c r="P46">
-        <f t="shared" si="12"/>
-        <v>19</v>
+        <f>ROUND(25*EXP(-0.5*((K46-5)/$J$4)^2), 0)</f>
+        <v>16</v>
       </c>
       <c r="Q46" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_yellowperch","MaxPriceThreshold":1005,"MinPriceThreshold":1005,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B46) &amp; """,""MaxPriceThreshold"":" &amp; M46 &amp; ",""MinPriceThreshold"":" &amp; M46 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_redheadcichlid","MaxPriceThreshold":544,"MinPriceThreshold":544,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R46" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_yellowperchfilletmeat","MaxPriceThreshold":854,"MinPriceThreshold":854,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B46) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N46 &amp; ",""MinPriceThreshold"":" &amp; N46 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_redheadcichlidfilletmeat","MaxPriceThreshold":462,"MinPriceThreshold":462,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S46" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C46), ", {""ClassName"":""" &amp; LOWER(C46) &amp; """,""MaxPriceThreshold"":" &amp; N46 &amp; ",""MinPriceThreshold"":" &amp; N46 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T46" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D46), ", {""ClassName"":""" &amp; LOWER(D46) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N46 &amp; ",""MinPriceThreshold"":" &amp; N46 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
       </c>
       <c r="H47" s="6">
         <v>0</v>
       </c>
-      <c r="I47" s="5">
-        <v>4</v>
-      </c>
-      <c r="J47" s="5">
-        <v>9</v>
+      <c r="I47" s="6">
+        <v>8</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="10"/>
-        <v>7.5</v>
+        <f>(G47*$E$2)+(I47*$E$3)+(J47*$E$4)</f>
+        <v>2.9</v>
       </c>
       <c r="L47" s="6">
         <v>1</v>
       </c>
       <c r="M47">
-        <f t="shared" si="4"/>
-        <v>1125</v>
+        <f>ROUND($J$2 * K47 * L47 * IF(F47=1, $O$4, 1) * IF(H47=1, $O$2, 1),0)</f>
+        <v>544</v>
       </c>
       <c r="N47">
-        <f t="shared" si="11"/>
-        <v>1195</v>
+        <f>INT((M47/I47)*$O$3)</f>
+        <v>289</v>
       </c>
       <c r="O47">
         <f>N47*I47</f>
-        <v>4780</v>
+        <v>2312</v>
       </c>
       <c r="P47">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f>ROUND(25*EXP(-0.5*((K47-5)/$J$4)^2), 0)</f>
+        <v>16</v>
       </c>
       <c r="Q47" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_rainbowtrout","MaxPriceThreshold":1125,"MinPriceThreshold":1125,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B47) &amp; """,""MaxPriceThreshold"":" &amp; M47 &amp; ",""MinPriceThreshold"":" &amp; M47 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_roughneckrock","MaxPriceThreshold":544,"MinPriceThreshold":544,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R47" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_rainbowtroutfilletmeat","MaxPriceThreshold":1195,"MinPriceThreshold":1195,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B47) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N47 &amp; ",""MinPriceThreshold"":" &amp; N47 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_roughneckrockfilletmeat","MaxPriceThreshold":289,"MinPriceThreshold":289,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S47" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C47), ", {""ClassName"":""" &amp; LOWER(C47) &amp; """,""MaxPriceThreshold"":" &amp; N47 &amp; ",""MinPriceThreshold"":" &amp; N47 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T47" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D47), ", {""ClassName"":""" &amp; LOWER(D47) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N47 &amp; ",""MinPriceThreshold"":" &amp; N47 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
       <c r="E48">
         <v>1</v>
       </c>
@@ -4009,64 +4013,66 @@
         <v>1</v>
       </c>
       <c r="G48" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48" s="6">
         <v>0</v>
       </c>
       <c r="I48" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J48" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48">
-        <f t="shared" si="10"/>
-        <v>2.9</v>
+        <f>(G48*$E$2)+(I48*$E$3)+(J48*$E$4)</f>
+        <v>4.8999999999999995</v>
       </c>
       <c r="L48" s="6">
         <v>1</v>
       </c>
       <c r="M48">
-        <f t="shared" si="4"/>
-        <v>544</v>
+        <f>ROUND($J$2 * K48 * L48 * IF(F48=1, $O$4, 1) * IF(H48=1, $O$2, 1),0)</f>
+        <v>919</v>
       </c>
       <c r="N48">
-        <f t="shared" si="11"/>
-        <v>462</v>
+        <f>INT((M48/I48)*$O$3)</f>
+        <v>557</v>
       </c>
       <c r="O48">
-        <f t="shared" si="13"/>
-        <v>2310</v>
+        <f>N48*I48</f>
+        <v>3899</v>
       </c>
       <c r="P48">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f>ROUND(25*EXP(-0.5*((K48-5)/$J$4)^2), 0)</f>
+        <v>25</v>
       </c>
       <c r="Q48" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_redheadcichlid","MaxPriceThreshold":544,"MinPriceThreshold":544,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B48) &amp; """,""MaxPriceThreshold"":" &amp; M48 &amp; ",""MinPriceThreshold"":" &amp; M48 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_atlanticsailfish","MaxPriceThreshold":919,"MinPriceThreshold":919,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R48" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_redheadcichlidfilletmeat","MaxPriceThreshold":462,"MinPriceThreshold":462,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B48) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N48 &amp; ",""MinPriceThreshold"":" &amp; N48 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_atlanticsailfishfilletmeat","MaxPriceThreshold":557,"MinPriceThreshold":557,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S48" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C48), ", {""ClassName"":""" &amp; LOWER(C48) &amp; """,""MaxPriceThreshold"":" &amp; N48 &amp; ",""MinPriceThreshold"":" &amp; N48 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T48" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D48), ", {""ClassName"":""" &amp; LOWER(D48) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N48 &amp; ",""MinPriceThreshold"":" &amp; N48 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="E49">
         <v>1</v>
       </c>
@@ -4074,63 +4080,59 @@
         <v>1</v>
       </c>
       <c r="G49" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6">
         <v>0</v>
       </c>
-      <c r="I49" s="6">
-        <v>8</v>
-      </c>
       <c r="J49" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K49">
-        <f t="shared" si="10"/>
-        <v>2.9</v>
+        <f>(G49*$E$2)+(I49*$E$3)+(J49*$E$4)</f>
+        <v>5.9</v>
       </c>
       <c r="L49" s="6">
         <v>1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="4"/>
-        <v>544</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="11"/>
-        <v>289</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="13"/>
-        <v>2312</v>
+        <f>ROUND($J$2 * K49 * L49 * IF(F49=1, $O$4, 1) * IF(H49=1, $O$2, 1),0)</f>
+        <v>2213</v>
+      </c>
+      <c r="N49" t="e">
+        <f>INT((M49/I49)*$O$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O49" t="e">
+        <f>N49*I49</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P49">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f>ROUND(25*EXP(-0.5*((K49-5)/$J$4)^2), 0)</f>
+        <v>23</v>
       </c>
       <c r="Q49" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_roughneckrock","MaxPriceThreshold":544,"MinPriceThreshold":544,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R49" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_roughneckrockfilletmeat","MaxPriceThreshold":289,"MinPriceThreshold":289,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B49) &amp; """,""MaxPriceThreshold"":" &amp; M49 &amp; ",""MinPriceThreshold"":" &amp; M49 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"sardines","MaxPriceThreshold":2213,"MinPriceThreshold":2213,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S49" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C49), ", {""ClassName"":""" &amp; LOWER(C49) &amp; """,""MaxPriceThreshold"":" &amp; N49 &amp; ",""MinPriceThreshold"":" &amp; N49 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T49" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D49), ", {""ClassName"":""" &amp; LOWER(D49) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N49 &amp; ",""MinPriceThreshold"":" &amp; N49 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -4138,202 +4140,203 @@
         <v>1</v>
       </c>
       <c r="F50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H50" s="6">
         <v>0</v>
       </c>
       <c r="I50" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J50" s="6">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <f>(G50*$E$2)+(I50*$E$3)+(J50*$E$4)</f>
+        <v>5.8</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f>ROUND($J$2 * K50 * L50 * IF(F50=1, $O$4, 1) * IF(H50=1, $O$2, 1),0)</f>
+        <v>870</v>
+      </c>
+      <c r="N50">
+        <f>INT((M50/I50)*$O$3)</f>
+        <v>1848</v>
+      </c>
+      <c r="O50">
+        <f>N50*I50</f>
+        <v>3696</v>
+      </c>
+      <c r="P50">
+        <f>ROUND(25*EXP(-0.5*((K50-5)/$J$4)^2), 0)</f>
+        <v>23</v>
+      </c>
+      <c r="Q50" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B50) &amp; """,""MaxPriceThreshold"":" &amp; M50 &amp; ",""MinPriceThreshold"":" &amp; M50 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_sauger","MaxPriceThreshold":870,"MinPriceThreshold":870,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R50" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B50) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N50 &amp; ",""MinPriceThreshold"":" &amp; N50 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_saugerfilletmeat","MaxPriceThreshold":1848,"MinPriceThreshold":1848,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S50" s="9" t="str">
+        <f>IF(ISTEXT(C50), ", {""ClassName"":""" &amp; LOWER(C50) &amp; """,""MaxPriceThreshold"":" &amp; N50 &amp; ",""MinPriceThreshold"":" &amp; N50 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T50" s="9" t="str">
+        <f>IF(ISTEXT(D50), ", {""ClassName"":""" &amp; LOWER(D50) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N50 &amp; ",""MinPriceThreshold"":" &amp; N50 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>2</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
         <v>4</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="10"/>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="L50" s="6">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="4"/>
-        <v>919</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="11"/>
-        <v>557</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="13"/>
-        <v>3899</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="Q50" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_atlanticsailfish","MaxPriceThreshold":919,"MinPriceThreshold":919,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R50" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_atlanticsailfishfilletmeat","MaxPriceThreshold":557,"MinPriceThreshold":557,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S50" s="9" t="str">
-        <f t="shared" si="9"/>
+      <c r="J51" s="6">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <f>(G51*$E$2)+(I51*$E$3)+(J51*$E$4)</f>
+        <v>2.6</v>
+      </c>
+      <c r="L51" s="6">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f>ROUND($J$2 * K51 * L51 * IF(F51=1, $O$4, 1) * IF(H51=1, $O$2, 1),0)</f>
+        <v>390</v>
+      </c>
+      <c r="N51">
+        <f>INT((M51/I51)*$O$3)</f>
+        <v>414</v>
+      </c>
+      <c r="O51">
+        <f>N51*I51</f>
+        <v>1656</v>
+      </c>
+      <c r="P51">
+        <f>ROUND(25*EXP(-0.5*((K51-5)/$J$4)^2), 0)</f>
+        <v>14</v>
+      </c>
+      <c r="Q51" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B51) &amp; """,""MaxPriceThreshold"":" &amp; M51 &amp; ",""MinPriceThreshold"":" &amp; M51 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_severum","MaxPriceThreshold":390,"MinPriceThreshold":390,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R51" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B51) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N51 &amp; ",""MinPriceThreshold"":" &amp; N51 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_severumfilletmeat","MaxPriceThreshold":414,"MinPriceThreshold":414,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S51" s="9" t="str">
+        <f>IF(ISTEXT(C51), ", {""ClassName"":""" &amp; LOWER(C51) &amp; """,""MaxPriceThreshold"":" &amp; N51 &amp; ",""MinPriceThreshold"":" &amp; N51 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
-      <c r="T50" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="T51" s="9" t="str">
+        <f>IF(ISTEXT(D51), ", {""ClassName"":""" &amp; LOWER(D51) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N51 &amp; ",""MinPriceThreshold"":" &amp; N51 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1</v>
-      </c>
-      <c r="G51" s="6">
-        <v>9</v>
-      </c>
-      <c r="H51" s="6">
-        <v>1</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>7</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="10"/>
-        <v>5.9</v>
-      </c>
-      <c r="L51" s="6">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="4"/>
-        <v>2213</v>
-      </c>
-      <c r="N51" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O51" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="Q51" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"sardines","MaxPriceThreshold":2213,"MinPriceThreshold":2213,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S51" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T51" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>10</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6">
         <v>0</v>
       </c>
-      <c r="G52" s="6">
-        <v>8</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6">
-        <v>2</v>
-      </c>
       <c r="J52" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K52">
-        <f t="shared" si="10"/>
-        <v>5.8</v>
+        <f>(G52*$E$2)+(I52*$E$3)+(J52*$E$4)</f>
+        <v>6.8</v>
       </c>
       <c r="L52" s="6">
         <v>1</v>
       </c>
       <c r="M52">
-        <f t="shared" si="4"/>
-        <v>870</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="11"/>
-        <v>1848</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="13"/>
-        <v>3696</v>
+        <f>ROUND($J$2 * K52 * L52 * IF(F52=1, $O$4, 1) * IF(H52=1, $O$2, 1),0)</f>
+        <v>2550</v>
+      </c>
+      <c r="N52" t="e">
+        <f>INT((M52/I52)*$O$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" t="e">
+        <f>N52*I52</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P52">
-        <f t="shared" si="12"/>
-        <v>23</v>
+        <f>ROUND(25*EXP(-0.5*((K52-5)/$J$4)^2), 0)</f>
+        <v>18</v>
       </c>
       <c r="Q52" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_sauger","MaxPriceThreshold":870,"MinPriceThreshold":870,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R52" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_saugerfilletmeat","MaxPriceThreshold":1848,"MinPriceThreshold":1848,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B52) &amp; """,""MaxPriceThreshold"":" &amp; M52 &amp; ",""MinPriceThreshold"":" &amp; M52 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"shrimp","MaxPriceThreshold":2550,"MinPriceThreshold":2550,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="S52" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C52), ", {""ClassName"":""" &amp; LOWER(C52) &amp; """,""MaxPriceThreshold"":" &amp; N52 &amp; ",""MinPriceThreshold"":" &amp; N52 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T52" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D52), ", {""ClassName"":""" &amp; LOWER(D52) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N52 &amp; ",""MinPriceThreshold"":" &amp; N52 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="6">
         <v>2</v>
@@ -4342,122 +4345,114 @@
         <v>0</v>
       </c>
       <c r="I53" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J53" s="6">
         <v>2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="10"/>
-        <v>2.6</v>
+        <f>(G53*$E$2)+(I53*$E$3)+(J53*$E$4)</f>
+        <v>2.9</v>
       </c>
       <c r="L53" s="6">
         <v>1</v>
       </c>
       <c r="M53">
-        <f t="shared" si="4"/>
-        <v>390</v>
+        <f>ROUND($J$2 * K53 * L53 * IF(F53=1, $O$4, 1) * IF(H53=1, $O$2, 1),0)</f>
+        <v>544</v>
       </c>
       <c r="N53">
-        <f t="shared" si="11"/>
-        <v>414</v>
+        <f>INT((M53/I53)*$O$3)</f>
+        <v>462</v>
       </c>
       <c r="O53">
-        <f t="shared" si="13"/>
-        <v>1656</v>
+        <f>N53*I53</f>
+        <v>2310</v>
       </c>
       <c r="P53">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f>ROUND(25*EXP(-0.5*((K53-5)/$J$4)^2), 0)</f>
+        <v>16</v>
       </c>
       <c r="Q53" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_severum","MaxPriceThreshold":390,"MinPriceThreshold":390,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B53) &amp; """,""MaxPriceThreshold"":" &amp; M53 &amp; ",""MinPriceThreshold"":" &amp; M53 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_siamesetigerfish","MaxPriceThreshold":544,"MinPriceThreshold":544,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R53" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_severumfilletmeat","MaxPriceThreshold":414,"MinPriceThreshold":414,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B53) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N53 &amp; ",""MinPriceThreshold"":" &amp; N53 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_siamesetigerfishfilletmeat","MaxPriceThreshold":462,"MinPriceThreshold":462,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S53" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C53), ", {""ClassName"":""" &amp; LOWER(C53) &amp; """,""MaxPriceThreshold"":" &amp; N53 &amp; ",""MinPriceThreshold"":" &amp; N53 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T53" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D53), ", {""ClassName"":""" &amp; LOWER(D53) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N53 &amp; ",""MinPriceThreshold"":" &amp; N53 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" t="s">
-        <v>97</v>
+        <v>134</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6">
         <v>0</v>
       </c>
-      <c r="I54" s="6">
-        <v>5</v>
-      </c>
       <c r="J54" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K54">
-        <f t="shared" si="10"/>
-        <v>2.9</v>
+        <f>(G54*$E$2)+(I54*$E$3)+(J54*$E$4)</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L54" s="6">
         <v>1</v>
       </c>
       <c r="M54">
-        <f t="shared" si="4"/>
-        <v>544</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="11"/>
-        <v>462</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="13"/>
-        <v>2310</v>
+        <f>ROUND($J$2 * K54 * L54 * IF(F54=1, $O$4, 1) * IF(H54=1, $O$2, 1),0)</f>
+        <v>1470</v>
+      </c>
+      <c r="N54" t="e">
+        <f>INT((M54/I54)*$O$3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" t="e">
+        <f>N54*I54</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P54">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f>ROUND(25*EXP(-0.5*((K54-5)/$J$4)^2), 0)</f>
+        <v>25</v>
       </c>
       <c r="Q54" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_siamesetigerfish","MaxPriceThreshold":544,"MinPriceThreshold":544,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R54" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_siamesetigerfishfilletmeat","MaxPriceThreshold":462,"MinPriceThreshold":462,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S54" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B54) &amp; """,""MaxPriceThreshold"":" &amp; M54 &amp; ",""MinPriceThreshold"":" &amp; M54 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_signalcrayfish","MaxPriceThreshold":1470,"MinPriceThreshold":1470,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="T54" s="9" t="str">
+        <f>IF(ISTEXT(D54), ", {""ClassName"":""" &amp; LOWER(D54) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N54 &amp; ",""MinPriceThreshold"":" &amp; N54 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
-      <c r="T54" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -4480,51 +4475,51 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <f t="shared" si="10"/>
+        <f>(G55*$E$2)+(I55*$E$3)+(J55*$E$4)</f>
         <v>1</v>
       </c>
       <c r="L55" s="6">
         <v>1</v>
       </c>
       <c r="M55">
-        <f t="shared" si="4"/>
+        <f>ROUND($J$2 * K55 * L55 * IF(F55=1, $O$4, 1) * IF(H55=1, $O$2, 1),0)</f>
         <v>188</v>
       </c>
       <c r="N55">
-        <f t="shared" si="11"/>
+        <f>INT((M55/I55)*$O$3)</f>
         <v>799</v>
       </c>
       <c r="O55">
-        <f t="shared" si="13"/>
+        <f>N55*I55</f>
         <v>799</v>
       </c>
       <c r="P55">
-        <f t="shared" si="12"/>
+        <f>ROUND(25*EXP(-0.5*((K55-5)/$J$4)^2), 0)</f>
         <v>5</v>
       </c>
       <c r="Q55" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B55) &amp; """,""MaxPriceThreshold"":" &amp; M55 &amp; ",""MinPriceThreshold"":" &amp; M55 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
         <v>, {"ClassName":"geb_slimysculpin","MaxPriceThreshold":188,"MinPriceThreshold":188,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R55" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B55) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N55 &amp; ",""MinPriceThreshold"":" &amp; N55 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
         <v>, {"ClassName":"geb_slimysculpinfilletmeat","MaxPriceThreshold":799,"MinPriceThreshold":799,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S55" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C55), ", {""ClassName"":""" &amp; LOWER(C55) &amp; """,""MaxPriceThreshold"":" &amp; N55 &amp; ",""MinPriceThreshold"":" &amp; N55 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T55" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D55), ", {""ClassName"":""" &amp; LOWER(D55) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N55 &amp; ",""MinPriceThreshold"":" &amp; N55 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -4547,51 +4542,54 @@
         <v>6</v>
       </c>
       <c r="K56">
-        <f t="shared" si="10"/>
+        <f>(G56*$E$2)+(I56*$E$3)+(J56*$E$4)</f>
         <v>5.7</v>
       </c>
       <c r="L56" s="6">
         <v>1</v>
       </c>
       <c r="M56">
-        <f t="shared" si="4"/>
+        <f>ROUND($J$2 * K56 * L56 * IF(F56=1, $O$4, 1) * IF(H56=1, $O$2, 1),0)</f>
         <v>855</v>
       </c>
       <c r="N56">
-        <f t="shared" si="11"/>
+        <f>INT((M56/I56)*$O$3)</f>
         <v>726</v>
       </c>
       <c r="O56">
-        <f t="shared" si="13"/>
+        <f>N56*I56</f>
         <v>3630</v>
       </c>
       <c r="P56">
-        <f t="shared" si="12"/>
+        <f>ROUND(25*EXP(-0.5*((K56-5)/$J$4)^2), 0)</f>
         <v>24</v>
       </c>
       <c r="Q56" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B56) &amp; """,""MaxPriceThreshold"":" &amp; M56 &amp; ",""MinPriceThreshold"":" &amp; M56 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
         <v>, {"ClassName":"geb_smallmouthbass","MaxPriceThreshold":855,"MinPriceThreshold":855,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R56" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B56) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N56 &amp; ",""MinPriceThreshold"":" &amp; N56 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
         <v>, {"ClassName":"geb_smallmouthbassfilletmeat","MaxPriceThreshold":726,"MinPriceThreshold":726,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S56" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C56), ", {""ClassName"":""" &amp; LOWER(C56) &amp; """,""MaxPriceThreshold"":" &amp; N56 &amp; ",""MinPriceThreshold"":" &amp; N56 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T56" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D56), ", {""ClassName"":""" &amp; LOWER(D56) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N56 &amp; ",""MinPriceThreshold"":" &amp; N56 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>150</v>
+      </c>
+      <c r="C57" t="s">
+        <v>151</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4603,191 +4601,185 @@
         <v>10</v>
       </c>
       <c r="H57" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J57" s="6">
         <v>10</v>
       </c>
       <c r="K57">
-        <f t="shared" si="10"/>
-        <v>9.1</v>
+        <f>(G57*$E$2)+(I57*$E$3)+(J57*$E$4)</f>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L57" s="6">
         <v>1</v>
       </c>
       <c r="M57">
-        <f t="shared" si="4"/>
-        <v>1706</v>
+        <f>ROUND($J$2 * K57 * L57 * IF(F57=1, $O$4, 1) * IF(H57=1, $O$2, 1),0)</f>
+        <v>3638</v>
       </c>
       <c r="N57">
-        <f t="shared" si="11"/>
-        <v>1035</v>
+        <f>INT((M57/I57)*$O$3)</f>
+        <v>1717</v>
       </c>
       <c r="O57">
-        <f t="shared" si="13"/>
-        <v>7245</v>
+        <f>N57*I57</f>
+        <v>15453</v>
       </c>
       <c r="P57">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f>ROUND(25*EXP(-0.5*((K57-5)/$J$4)^2), 0)</f>
+        <v>3</v>
       </c>
       <c r="Q57" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_sockeyesalmon","MaxPriceThreshold":1706,"MinPriceThreshold":1706,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R57" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_sockeyesalmonfilletmeat","MaxPriceThreshold":1035,"MinPriceThreshold":1035,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B57) &amp; """,""MaxPriceThreshold"":" &amp; M57 &amp; ",""MinPriceThreshold"":" &amp; M57 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_snowcrab","MaxPriceThreshold":3638,"MinPriceThreshold":3638,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S57" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C57), ", {""ClassName"":""" &amp; LOWER(C57) &amp; """,""MaxPriceThreshold"":" &amp; N57 &amp; ",""MinPriceThreshold"":" &amp; N57 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v>, {"ClassName":"geb_snowcrablegs","MaxPriceThreshold":1717,"MinPriceThreshold":1717,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="T57" s="9" t="str">
+        <f>IF(ISTEXT(D57), ", {""ClassName"":""" &amp; LOWER(D57) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N57 &amp; ",""MinPriceThreshold"":" &amp; N57 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
-      <c r="T57" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>52</v>
+    </row>
+    <row r="58" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="B58" t="s">
         <v>99</v>
       </c>
       <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6">
+        <v>10</v>
+      </c>
+      <c r="H58" s="6">
         <v>0</v>
       </c>
-      <c r="F58" s="5">
-        <v>1</v>
-      </c>
-      <c r="G58" s="6">
-        <v>1</v>
-      </c>
-      <c r="H58" s="6">
-        <v>1</v>
-      </c>
       <c r="I58" s="6">
+        <v>7</v>
+      </c>
+      <c r="J58" s="6">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <f>(G58*$E$2)+(I58*$E$3)+(J58*$E$4)</f>
+        <v>9.1</v>
+      </c>
+      <c r="L58" s="6">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <f>ROUND($J$2 * K58 * L58 * IF(F58=1, $O$4, 1) * IF(H58=1, $O$2, 1),0)</f>
+        <v>1706</v>
+      </c>
+      <c r="N58">
+        <f>INT((M58/I58)*$O$3)</f>
+        <v>1035</v>
+      </c>
+      <c r="O58">
+        <f>N58*I58</f>
+        <v>7245</v>
+      </c>
+      <c r="P58">
+        <f>ROUND(25*EXP(-0.5*((K58-5)/$J$4)^2), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q58" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B58) &amp; """,""MaxPriceThreshold"":" &amp; M58 &amp; ",""MinPriceThreshold"":" &amp; M58 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_sockeyesalmon","MaxPriceThreshold":1706,"MinPriceThreshold":1706,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R58" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B58) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N58 &amp; ",""MinPriceThreshold"":" &amp; N58 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_sockeyesalmonfilletmeat","MaxPriceThreshold":1035,"MinPriceThreshold":1035,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S58" s="9" t="str">
+        <f>IF(ISTEXT(C58), ", {""ClassName"":""" &amp; LOWER(C58) &amp; """,""MaxPriceThreshold"":" &amp; N58 &amp; ",""MinPriceThreshold"":" &amp; N58 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T58" s="9" t="str">
+        <f>IF(ISTEXT(D58), ", {""ClassName"":""" &amp; LOWER(D58) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N58 &amp; ",""MinPriceThreshold"":" &amp; N58 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59">
         <v>0</v>
       </c>
-      <c r="J58" s="6">
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6">
         <v>0</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="10"/>
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f>(G59*$E$2)+(I59*$E$3)+(J59*$E$4)</f>
         <v>0.5</v>
       </c>
-      <c r="L58" s="6">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="4"/>
+      <c r="L59" s="6">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <f>ROUND($J$2 * K59 * L59 * IF(F59=1, $O$4, 1) * IF(H59=1, $O$2, 1),0)</f>
         <v>188</v>
       </c>
-      <c r="N58" t="e">
-        <f t="shared" si="11"/>
+      <c r="N59" t="e">
+        <f>INT((M59/I59)*$O$3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O58" t="e">
-        <f t="shared" si="13"/>
+      <c r="O59" t="e">
+        <f>N59*I59</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P58">
-        <f t="shared" si="12"/>
+      <c r="P59">
+        <f>ROUND(25*EXP(-0.5*((K59-5)/$J$4)^2), 0)</f>
         <v>3</v>
       </c>
-      <c r="Q58" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="Q59" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B59) &amp; """,""MaxPriceThreshold"":" &amp; M59 &amp; ",""MinPriceThreshold"":" &amp; M59 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
         <v>, {"ClassName":"geb_starfish","MaxPriceThreshold":188,"MinPriceThreshold":188,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
-      <c r="R58" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="S58" s="9" t="str">
-        <f t="shared" si="9"/>
+      <c r="R59" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="S59" s="9" t="str">
+        <f>IF(ISTEXT(C59), ", {""ClassName"":""" &amp; LOWER(C59) &amp; """,""MaxPriceThreshold"":" &amp; N59 &amp; ",""MinPriceThreshold"":" &amp; N59 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
-      <c r="T58" s="9" t="str">
-        <f t="shared" si="7"/>
+      <c r="T59" s="9" t="str">
+        <f>IF(ISTEXT(D59), ", {""ClassName"":""" &amp; LOWER(D59) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N59 &amp; ",""MinPriceThreshold"":" &amp; N59 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="5">
-        <v>0</v>
-      </c>
-      <c r="G59" s="6">
-        <v>4</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0</v>
-      </c>
-      <c r="I59" s="6">
-        <v>3</v>
-      </c>
-      <c r="J59" s="6">
-        <v>4</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="10"/>
-        <v>3.7</v>
-      </c>
-      <c r="L59" s="6">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="4"/>
-        <v>555</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="11"/>
-        <v>786</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="13"/>
-        <v>2358</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
-      <c r="Q59" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_sunfish","MaxPriceThreshold":555,"MinPriceThreshold":555,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R59" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_sunfishfilletmeat","MaxPriceThreshold":786,"MinPriceThreshold":786,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="S59" s="9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T59" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -4795,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="6">
         <v>9</v>
@@ -4804,57 +4796,57 @@
         <v>0</v>
       </c>
       <c r="I60" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J60" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K60">
-        <f t="shared" si="10"/>
-        <v>7.6</v>
+        <f>(G60*$E$2)+(I60*$E$3)+(J60*$E$4)</f>
+        <v>8.1</v>
       </c>
       <c r="L60" s="6">
         <v>1</v>
       </c>
       <c r="M60">
-        <f t="shared" si="4"/>
-        <v>1140</v>
+        <f>ROUND($J$2 * K60 * L60 * IF(F60=1, $O$4, 1) * IF(H60=1, $O$2, 1),0)</f>
+        <v>1519</v>
       </c>
       <c r="N60">
-        <f t="shared" si="11"/>
-        <v>969</v>
+        <f>INT((M60/I60)*$O$3)</f>
+        <v>1075</v>
       </c>
       <c r="O60">
-        <f t="shared" si="13"/>
-        <v>4845</v>
+        <f>N60*I60</f>
+        <v>6450</v>
       </c>
       <c r="P60">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f>ROUND(25*EXP(-0.5*((K60-5)/$J$4)^2), 0)</f>
+        <v>10</v>
       </c>
       <c r="Q60" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_walleye","MaxPriceThreshold":1140,"MinPriceThreshold":1140,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B60) &amp; """,""MaxPriceThreshold"":" &amp; M60 &amp; ",""MinPriceThreshold"":" &amp; M60 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"steelheadtrout","MaxPriceThreshold":1519,"MinPriceThreshold":1519,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R60" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_walleyefilletmeat","MaxPriceThreshold":969,"MinPriceThreshold":969,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B60) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N60 &amp; ",""MinPriceThreshold"":" &amp; N60 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"steelheadtroutfilletmeat","MaxPriceThreshold":1075,"MinPriceThreshold":1075,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S60" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C60), ", {""ClassName"":""" &amp; LOWER(C60) &amp; """,""MaxPriceThreshold"":" &amp; N60 &amp; ",""MinPriceThreshold"":" &amp; N60 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T60" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D60), ", {""ClassName"":""" &amp; LOWER(D60) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N60 &amp; ",""MinPriceThreshold"":" &amp; N60 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -4865,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H61" s="6">
         <v>0</v>
@@ -4874,119 +4866,121 @@
         <v>3</v>
       </c>
       <c r="J61" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K61">
-        <f t="shared" si="10"/>
-        <v>5.0999999999999996</v>
+        <f>(G61*$E$2)+(I61*$E$3)+(J61*$E$4)</f>
+        <v>3.7</v>
       </c>
       <c r="L61" s="6">
         <v>1</v>
       </c>
       <c r="M61">
-        <f t="shared" si="4"/>
-        <v>765</v>
+        <f>ROUND($J$2 * K61 * L61 * IF(F61=1, $O$4, 1) * IF(H61=1, $O$2, 1),0)</f>
+        <v>555</v>
       </c>
       <c r="N61">
-        <f t="shared" si="11"/>
-        <v>1083</v>
+        <f>INT((M61/I61)*$O$3)</f>
+        <v>786</v>
       </c>
       <c r="O61">
-        <f t="shared" si="13"/>
-        <v>3249</v>
+        <f>N61*I61</f>
+        <v>2358</v>
       </c>
       <c r="P61">
-        <f t="shared" si="12"/>
-        <v>25</v>
+        <f>ROUND(25*EXP(-0.5*((K61-5)/$J$4)^2), 0)</f>
+        <v>21</v>
       </c>
       <c r="Q61" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_whitebass","MaxPriceThreshold":765,"MinPriceThreshold":765,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B61) &amp; """,""MaxPriceThreshold"":" &amp; M61 &amp; ",""MinPriceThreshold"":" &amp; M61 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_sunfish","MaxPriceThreshold":555,"MinPriceThreshold":555,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R61" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_whitebassfilletmeat","MaxPriceThreshold":1083,"MinPriceThreshold":1083,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B61) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N61 &amp; ",""MinPriceThreshold"":" &amp; N61 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_sunfishfilletmeat","MaxPriceThreshold":786,"MinPriceThreshold":786,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S61" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C61), ", {""ClassName"":""" &amp; LOWER(C61) &amp; """,""MaxPriceThreshold"":" &amp; N61 &amp; ",""MinPriceThreshold"":" &amp; N61 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T61" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D61), ", {""ClassName"":""" &amp; LOWER(D61) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N61 &amp; ",""MinPriceThreshold"":" &amp; N61 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B62" t="s">
-        <v>104</v>
-      </c>
+      <c r="B62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H62" s="6">
         <v>0</v>
       </c>
       <c r="I62" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J62" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K62">
-        <f t="shared" si="10"/>
-        <v>9.1</v>
+        <f>(G62*$E$2)+(I62*$E$3)+(J62*$E$4)</f>
+        <v>7.6</v>
       </c>
       <c r="L62" s="6">
         <v>1</v>
       </c>
       <c r="M62">
-        <f t="shared" si="4"/>
-        <v>1706</v>
+        <f>ROUND($J$2 * K62 * L62 * IF(F62=1, $O$4, 1) * IF(H62=1, $O$2, 1),0)</f>
+        <v>1140</v>
       </c>
       <c r="N62">
-        <f t="shared" si="11"/>
-        <v>1035</v>
+        <f>INT((M62/I62)*$O$3)</f>
+        <v>969</v>
       </c>
       <c r="O62">
-        <f t="shared" si="13"/>
-        <v>7245</v>
+        <f>N62*I62</f>
+        <v>4845</v>
       </c>
       <c r="P62">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f>ROUND(25*EXP(-0.5*((K62-5)/$J$4)^2), 0)</f>
+        <v>13</v>
       </c>
       <c r="Q62" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"geb_yellowfintuna","MaxPriceThreshold":1706,"MinPriceThreshold":1706,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B62) &amp; """,""MaxPriceThreshold"":" &amp; M62 &amp; ",""MinPriceThreshold"":" &amp; M62 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_walleye","MaxPriceThreshold":1140,"MinPriceThreshold":1140,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="R62" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, {"ClassName":"geb_yellowfintunafilletmeat","MaxPriceThreshold":1035,"MinPriceThreshold":1035,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B62) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N62 &amp; ",""MinPriceThreshold"":" &amp; N62 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_walleyefilletmeat","MaxPriceThreshold":969,"MinPriceThreshold":969,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S62" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C62), ", {""ClassName"":""" &amp; LOWER(C62) &amp; """,""MaxPriceThreshold"":" &amp; N62 &amp; ",""MinPriceThreshold"":" &amp; N62 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T62" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D62), ", {""ClassName"":""" &amp; LOWER(D62) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N62 &amp; ",""MinPriceThreshold"":" &amp; N62 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -4997,81 +4991,190 @@
         <v>1</v>
       </c>
       <c r="G63" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H63" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J63" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K63">
-        <f t="shared" si="10"/>
-        <v>6.8</v>
+        <f>(G63*$E$2)+(I63*$E$3)+(J63*$E$4)</f>
+        <v>6.8999999999999995</v>
       </c>
       <c r="L63" s="6">
         <v>1</v>
       </c>
       <c r="M63">
-        <f t="shared" si="4"/>
-        <v>2550</v>
-      </c>
-      <c r="N63" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" t="e">
+        <f>ROUND($J$2 * K63 * L63 * IF(F63=1, $O$4, 1) * IF(H63=1, $O$2, 1),0)</f>
+        <v>1294</v>
+      </c>
+      <c r="N63">
+        <f>INT((M63/I63)*$O$3)</f>
+        <v>785</v>
+      </c>
+      <c r="O63">
         <f>N63*I63</f>
-        <v>#DIV/0!</v>
+        <v>5495</v>
       </c>
       <c r="P63">
-        <f t="shared" si="12"/>
+        <f>ROUND(25*EXP(-0.5*((K63-5)/$J$4)^2), 0)</f>
         <v>18</v>
       </c>
       <c r="Q63" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, {"ClassName":"shrimp","MaxPriceThreshold":2550,"MinPriceThreshold":2550,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
-      </c>
-      <c r="R63" s="9" t="s">
-        <v>130</v>
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B63) &amp; """,""MaxPriceThreshold"":" &amp; M63 &amp; ",""MinPriceThreshold"":" &amp; M63 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"walleyepollock","MaxPriceThreshold":1294,"MinPriceThreshold":1294,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R63" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B63) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N63 &amp; ",""MinPriceThreshold"":" &amp; N63 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"walleyepollockfilletmeat","MaxPriceThreshold":785,"MinPriceThreshold":785,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
       </c>
       <c r="S63" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISTEXT(C63), ", {""ClassName"":""" &amp; LOWER(C63) &amp; """,""MaxPriceThreshold"":" &amp; N63 &amp; ",""MinPriceThreshold"":" &amp; N63 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
       <c r="T63" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISTEXT(D63), ", {""ClassName"":""" &amp; LOWER(D63) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N63 &amp; ",""MinPriceThreshold"":" &amp; N63 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+    <row r="64" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
+        <v>6</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>3</v>
+      </c>
+      <c r="J64" s="6">
+        <v>6</v>
+      </c>
+      <c r="K64">
+        <f>(G64*$E$2)+(I64*$E$3)+(J64*$E$4)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L64" s="6">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <f>ROUND($J$2 * K64 * L64 * IF(F64=1, $O$4, 1) * IF(H64=1, $O$2, 1),0)</f>
+        <v>765</v>
+      </c>
+      <c r="N64">
+        <f>INT((M64/I64)*$O$3)</f>
+        <v>1083</v>
+      </c>
+      <c r="O64">
+        <f>N64*I64</f>
+        <v>3249</v>
+      </c>
+      <c r="P64">
+        <f>ROUND(25*EXP(-0.5*((K64-5)/$J$4)^2), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q64" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B64) &amp; """,""MaxPriceThreshold"":" &amp; M64 &amp; ",""MinPriceThreshold"":" &amp; M64 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_whitebass","MaxPriceThreshold":765,"MinPriceThreshold":765,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R64" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B64) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N64 &amp; ",""MinPriceThreshold"":" &amp; N64 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_whitebassfilletmeat","MaxPriceThreshold":1083,"MinPriceThreshold":1083,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S64" s="9" t="str">
+        <f>IF(ISTEXT(C64), ", {""ClassName"":""" &amp; LOWER(C64) &amp; """,""MaxPriceThreshold"":" &amp; N64 &amp; ",""MinPriceThreshold"":" &amp; N64 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T64" s="9" t="str">
+        <f>IF(ISTEXT(D64), ", {""ClassName"":""" &amp; LOWER(D64) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N64 &amp; ",""MinPriceThreshold"":" &amp; N64 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6">
+        <v>10</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>7</v>
+      </c>
+      <c r="J65" s="6">
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <f>(G65*$E$2)+(I65*$E$3)+(J65*$E$4)</f>
+        <v>9.1</v>
+      </c>
+      <c r="L65" s="6">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <f>ROUND($J$2 * K65 * L65 * IF(F65=1, $O$4, 1) * IF(H65=1, $O$2, 1),0)</f>
+        <v>1706</v>
+      </c>
+      <c r="N65">
+        <f>INT((M65/I65)*$O$3)</f>
+        <v>1035</v>
+      </c>
+      <c r="O65">
+        <f>N65*I65</f>
+        <v>7245</v>
+      </c>
+      <c r="P65">
+        <f>ROUND(25*EXP(-0.5*((K65-5)/$J$4)^2), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q65" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B65) &amp; """,""MaxPriceThreshold"":" &amp; M65 &amp; ",""MinPriceThreshold"":" &amp; M65 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_yellowfintuna","MaxPriceThreshold":1706,"MinPriceThreshold":1706,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="R65" s="9" t="str">
+        <f xml:space="preserve"> ", {""ClassName"":""" &amp; LOWER(B65) &amp; "filletmeat" &amp; """,""MaxPriceThreshold"":" &amp; N65 &amp; ",""MinPriceThreshold"":" &amp; N65 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}"</f>
+        <v>, {"ClassName":"geb_yellowfintunafilletmeat","MaxPriceThreshold":1035,"MinPriceThreshold":1035,"SellPricePercent":100.0,"MaxStockThreshold":0,"MinStockThreshold":0,"QuantityPercent":-1,"SpawnAttachments":[],"Variants":[]}</v>
+      </c>
+      <c r="S65" s="9" t="str">
+        <f>IF(ISTEXT(C65), ", {""ClassName"":""" &amp; LOWER(C65) &amp; """,""MaxPriceThreshold"":" &amp; N65 &amp; ",""MinPriceThreshold"":" &amp; N65 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+      <c r="T65" s="9" t="str">
+        <f>IF(ISTEXT(D65), ", {""ClassName"":""" &amp; LOWER(D65) &amp; "" &amp; """,""MaxPriceThreshold"":" &amp; N65 &amp; ",""MinPriceThreshold"":" &amp; N65 &amp; ",""SellPricePercent"":100.0,""MaxStockThreshold"":0,""MinStockThreshold"":0,""QuantityPercent"":-1,""SpawnAttachments"":[],""Variants"":[]}", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -5083,7 +5186,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5095,7 +5198,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -5107,7 +5210,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -5119,7 +5222,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -5131,7 +5234,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -5143,7 +5246,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -5155,7 +5258,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -5167,7 +5270,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -5179,7 +5282,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -5191,7 +5294,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -5203,7 +5306,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -5215,7 +5318,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -5227,7 +5330,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -5239,7 +5342,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -16135,16 +16238,40 @@
       <c r="I987" s="5"/>
       <c r="J987" s="5"/>
     </row>
+    <row r="988" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A988" s="5"/>
+      <c r="B988" s="5"/>
+      <c r="C988" s="5"/>
+      <c r="D988" s="5"/>
+      <c r="E988" s="5"/>
+      <c r="F988" s="5"/>
+      <c r="G988" s="5"/>
+      <c r="H988" s="5"/>
+      <c r="I988" s="5"/>
+      <c r="J988" s="5"/>
+    </row>
+    <row r="989" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A989" s="5"/>
+      <c r="B989" s="5"/>
+      <c r="C989" s="5"/>
+      <c r="D989" s="5"/>
+      <c r="E989" s="5"/>
+      <c r="F989" s="5"/>
+      <c r="G989" s="5"/>
+      <c r="H989" s="5"/>
+      <c r="I989" s="5"/>
+      <c r="J989" s="5"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:P62">
-    <sortCondition ref="A12:A62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:T65">
+    <sortCondition ref="A7:A65"/>
   </sortState>
-  <conditionalFormatting sqref="E7:E63">
+  <conditionalFormatting sqref="E7:E65">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H63">
+  <conditionalFormatting sqref="H7:H65">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
